--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C8C8B1-6720-485B-9A0D-C6C01FAD0E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E51655-E294-4E10-BEA2-507985F10443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="5160" windowWidth="22995" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +71,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="华文中宋"/>
       <family val="3"/>
       <charset val="134"/>
@@ -95,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -103,6 +111,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -383,21 +393,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,12 +419,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -421,7 +432,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -429,7 +440,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -437,7 +448,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -445,7 +456,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -453,7 +464,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -461,7 +472,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -469,7 +480,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -477,7 +488,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -485,7 +496,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -493,7 +504,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -501,7 +512,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -509,7 +520,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -517,7 +528,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -525,7 +536,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -533,7 +544,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -541,7 +552,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -549,7 +560,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -557,7 +568,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -565,7 +576,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -573,7 +584,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -581,7 +592,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -589,7 +600,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -597,7 +608,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -605,7 +616,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -613,7 +624,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -621,7 +632,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -629,7 +640,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -637,7 +648,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -645,7 +656,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -653,7 +664,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -661,7 +672,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -669,7 +680,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -677,7 +688,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -685,7 +696,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -693,7 +704,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -705,7 +716,7 @@
         <v>15225</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -717,7 +728,7 @@
         <v>23275</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -729,7 +740,7 @@
         <v>31600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -740,8 +751,11 @@
         <f>SUM(B$37:B41)</f>
         <v>40225</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="4">
+        <v>41895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -753,7 +767,7 @@
         <v>50775</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -765,7 +779,7 @@
         <v>62300</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -777,7 +791,7 @@
         <v>74775</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -789,7 +803,7 @@
         <v>88225</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -801,7 +815,7 @@
         <v>102625</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -809,7 +823,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -817,7 +831,7 @@
         <v>16325</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -825,7 +839,7 @@
         <v>17275</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -833,7 +847,7 @@
         <v>18250</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -841,7 +855,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -849,7 +863,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -857,7 +871,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -865,7 +879,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -873,7 +887,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -881,7 +895,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -889,7 +903,7 @@
         <v>232350</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -897,7 +911,7 @@
         <v>258950</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -905,7 +919,7 @@
         <v>285750</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -913,7 +927,7 @@
         <v>312825</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -926,4 +940,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB37C15-E79D-46AC-88ED-AF0A80D96423}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E51655-E294-4E10-BEA2-507985F10443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6079D1-AF12-49F0-8FAD-537E9E2F12C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>Personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,8 +119,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,20 +404,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,12 +428,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -432,7 +441,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -440,7 +449,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -448,7 +457,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -456,7 +465,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -464,7 +473,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -472,7 +481,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -480,7 +489,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -488,7 +497,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -496,7 +505,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -504,7 +513,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -512,7 +521,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -520,7 +529,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -528,7 +537,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -536,7 +545,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -544,7 +553,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -552,7 +561,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -560,7 +569,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -568,7 +577,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -576,7 +585,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -584,7 +593,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -592,7 +601,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -600,7 +609,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -608,7 +617,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -616,7 +625,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -624,7 +633,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -632,7 +641,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -640,7 +649,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -648,7 +657,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -656,7 +665,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -664,7 +673,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -672,7 +681,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -680,7 +689,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -688,7 +697,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -696,7 +705,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -704,7 +713,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -716,7 +725,7 @@
         <v>15225</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -728,7 +737,7 @@
         <v>23275</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -740,7 +749,7 @@
         <v>31600</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -751,11 +760,9 @@
         <f>SUM(B$37:B41)</f>
         <v>40225</v>
       </c>
-      <c r="D41" s="4">
-        <v>41895</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -766,8 +773,11 @@
         <f>SUM(B$37:B42)</f>
         <v>50775</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -779,7 +789,7 @@
         <v>62300</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -791,7 +801,7 @@
         <v>74775</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -803,7 +813,7 @@
         <v>88225</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -815,7 +825,7 @@
         <v>102625</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -823,7 +833,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -831,7 +841,7 @@
         <v>16325</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -839,7 +849,7 @@
         <v>17275</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -847,7 +857,7 @@
         <v>18250</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -855,7 +865,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -863,7 +873,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -871,7 +881,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -879,7 +889,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -887,7 +897,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -895,7 +905,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -903,7 +913,7 @@
         <v>232350</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -911,7 +921,7 @@
         <v>258950</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -919,7 +929,7 @@
         <v>285750</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -927,7 +937,7 @@
         <v>312825</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -946,10 +956,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB37C15-E79D-46AC-88ED-AF0A80D96423}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6079D1-AF12-49F0-8FAD-537E9E2F12C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD8C6D-3111-4A4D-8B8A-94B6A318A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>Personal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,9 +400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -414,7 +410,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,10 +716,6 @@
       <c r="B38" s="1">
         <v>7750</v>
       </c>
-      <c r="C38" s="2">
-        <f>SUM(B$37:B38)</f>
-        <v>15225</v>
-      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -732,10 +724,6 @@
       <c r="B39" s="1">
         <v>8050</v>
       </c>
-      <c r="C39" s="2">
-        <f>SUM(B$37:B39)</f>
-        <v>23275</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -744,10 +732,6 @@
       <c r="B40" s="1">
         <v>8325</v>
       </c>
-      <c r="C40" s="2">
-        <f>SUM(B$37:B40)</f>
-        <v>31600</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -756,10 +740,6 @@
       <c r="B41" s="1">
         <v>8625</v>
       </c>
-      <c r="C41" s="2">
-        <f>SUM(B$37:B41)</f>
-        <v>40225</v>
-      </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,13 +749,6 @@
       <c r="B42" s="1">
         <v>10550</v>
       </c>
-      <c r="C42" s="2">
-        <f>SUM(B$37:B42)</f>
-        <v>50775</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -784,10 +757,6 @@
       <c r="B43" s="1">
         <v>11525</v>
       </c>
-      <c r="C43" s="2">
-        <f>SUM(B$37:B43)</f>
-        <v>62300</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -796,10 +765,6 @@
       <c r="B44" s="1">
         <v>12475</v>
       </c>
-      <c r="C44" s="2">
-        <f>SUM(B$37:B44)</f>
-        <v>74775</v>
-      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -808,10 +773,6 @@
       <c r="B45" s="1">
         <v>13450</v>
       </c>
-      <c r="C45" s="2">
-        <f>SUM(B$37:B45)</f>
-        <v>88225</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -820,10 +781,6 @@
       <c r="B46" s="1">
         <v>14400</v>
       </c>
-      <c r="C46" s="2">
-        <f>SUM(B$37:B46)</f>
-        <v>102625</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -832,6 +789,9 @@
       <c r="B47" s="1">
         <v>15350</v>
       </c>
+      <c r="C47" s="2">
+        <v>15350</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -840,109 +800,165 @@
       <c r="B48" s="1">
         <v>16325</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f>SUM(B$47:B48)</f>
+        <v>31675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>17275</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f>SUM(B$47:B49)</f>
+        <v>48950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>18250</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f>SUM(B$47:B50)</f>
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>19200</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f>SUM(B$47:B51)</f>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>26400</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f>SUM(B$47:B52)</f>
+        <v>112800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>28800</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f>SUM(B$47:B53)</f>
+        <v>141600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>31200</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f>SUM(B$47:B54)</f>
+        <v>172800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>33600</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f>SUM(B$47:B55)</f>
+        <v>206400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>36000</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <f>SUM(B$47:B56)</f>
+        <v>242400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>232350</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <f>SUM(B$47:B57)</f>
+        <v>474750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>258950</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <f>SUM(B$47:B58)</f>
+        <v>733700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>285750</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <f>SUM(B$47:B59)</f>
+        <v>1019450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>312825</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <f>SUM(B$47:B60)</f>
+        <v>1332275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>3340125</v>
+      </c>
+      <c r="C61" s="2">
+        <f>SUM(B$47:B61)</f>
+        <v>4672400</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB37C15-E79D-46AC-88ED-AF0A80D96423}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -964,7 +980,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD8C6D-3111-4A4D-8B8A-94B6A318A424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249AB832-F5BD-4A73-ADA9-082129111E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9405" yWindow="3630" windowWidth="25710" windowHeight="14505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,7 +49,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天目</t>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3060Ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3070Ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4060Ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4070Ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1789-1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2427-2578</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +114,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +152,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
@@ -970,17 +1008,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB37C15-E79D-46AC-88ED-AF0A80D96423}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="B1" s="4">
+        <v>3060</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3070</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>3080</v>
+      </c>
+      <c r="G1" s="4">
+        <v>4060</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>4070</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4">
+        <v>4080</v>
+      </c>
+      <c r="L1" s="4">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2864</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3599</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4039</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4199</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5749</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7399</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11509</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249AB832-F5BD-4A73-ADA9-082129111E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482BF7D1-196E-435C-9ADF-07353AE5B36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="3630" windowWidth="25710" windowHeight="14505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9405" yWindow="3630" windowWidth="25710" windowHeight="14505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="显卡价格" sheetId="2" r:id="rId2"/>
+    <sheet name="暗铁剑" sheetId="3" r:id="rId3"/>
+    <sheet name="97" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +80,66 @@
   </si>
   <si>
     <t>2427-2578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daoge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QiuQiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污秽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不详</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80&gt;90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70&gt;80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60&gt;70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50&gt;60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +216,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB37C15-E79D-46AC-88ED-AF0A80D96423}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -1103,4 +1174,163 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED6FFD2-BFE7-4DF8-8EAA-3659B25653E8}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>12</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175FAF2-FD4B-4518-ADE5-30EEFD53563A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482BF7D1-196E-435C-9ADF-07353AE5B36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD37BFA-12FC-496D-A170-4D000C88F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="3630" windowWidth="25710" windowHeight="14505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="显卡价格" sheetId="2" r:id="rId2"/>
     <sheet name="暗铁剑" sheetId="3" r:id="rId3"/>
-    <sheet name="97" sheetId="4" r:id="rId4"/>
+    <sheet name="角色" sheetId="4" r:id="rId4"/>
+    <sheet name="Genshin—Exp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +141,126 @@
   </si>
   <si>
     <t>神体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草/柯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行/其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螭骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空之卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼叉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竭泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +304,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,7 +359,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED6FFD2-BFE7-4DF8-8EAA-3659B25653E8}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1190,24 +1334,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1221,7 +1365,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1233,7 +1377,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1241,7 +1385,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1253,7 +1397,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1264,7 +1408,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1276,7 +1420,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1284,7 +1428,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1333,4 +1477,144 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3D5CB-F3C7-4693-9ADA-14C543C9BF8B}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD37BFA-12FC-496D-A170-4D000C88F978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CB4453-DE2E-4E79-8103-9CC7807B46EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="暗铁剑" sheetId="3" r:id="rId3"/>
     <sheet name="角色" sheetId="4" r:id="rId4"/>
     <sheet name="Genshin—Exp" sheetId="5" r:id="rId5"/>
+    <sheet name="钓鱼武器" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +262,38 @@
   </si>
   <si>
     <t>万海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨波蜜桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡玉金枪鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦炮屯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +351,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,13 +409,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,15 +714,15 @@
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,12 +733,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -690,7 +746,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -698,7 +754,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -706,7 +762,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -714,7 +770,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -722,7 +778,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -730,7 +786,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -738,7 +794,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -746,7 +802,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -754,7 +810,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -762,7 +818,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -770,7 +826,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -778,7 +834,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -786,7 +842,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -794,7 +850,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -802,7 +858,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -810,7 +866,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -818,7 +874,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -826,7 +882,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -834,7 +890,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -842,7 +898,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -850,7 +906,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -858,7 +914,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -866,7 +922,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -874,7 +930,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -882,7 +938,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -890,7 +946,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -898,7 +954,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -906,7 +962,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -914,7 +970,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -922,7 +978,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -930,7 +986,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -938,7 +994,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -946,7 +1002,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -954,7 +1010,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -962,7 +1018,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -970,7 +1026,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -978,7 +1034,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -986,7 +1042,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -995,7 +1051,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1003,7 +1059,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1011,7 +1067,7 @@
         <v>11525</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1019,7 +1075,7 @@
         <v>12475</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1027,7 +1083,7 @@
         <v>13450</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1035,7 +1091,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1046,7 +1102,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1058,7 +1114,7 @@
         <v>31675</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1070,7 +1126,7 @@
         <v>48950</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1082,7 +1138,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1094,7 +1150,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1106,7 +1162,7 @@
         <v>112800</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1118,7 +1174,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1130,7 +1186,7 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1142,7 +1198,7 @@
         <v>206400</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1154,7 +1210,7 @@
         <v>242400</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1166,7 +1222,7 @@
         <v>474750</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1178,7 +1234,7 @@
         <v>733700</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1190,7 +1246,7 @@
         <v>1019450</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1202,7 +1258,7 @@
         <v>1332275</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1229,21 +1285,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="18.600000000000001">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1337,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1328,30 +1384,30 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1364,8 +1420,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1376,16 +1432,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1396,8 +1452,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1407,8 +1463,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1419,16 +1475,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="9"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1463,12 +1519,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="20" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1483,46 +1539,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3D5CB-F3C7-4693-9ADA-14C543C9BF8B}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1563,43 +1619,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G4" s="10" t="s">
+    <row r="4" spans="1:14">
+      <c r="G4" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1617,4 +1673,149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C024A14D-7897-4799-8471-E8D6992C7933}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.8"/>
+  <cols>
+    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="11"/>
+    <col min="6" max="6" width="15.5546875" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1">
+      <c r="A8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" s="13">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45074</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CB4453-DE2E-4E79-8103-9CC7807B46EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777607D-37FF-4AF2-9816-63620F988B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="3510" windowWidth="25710" windowHeight="14505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="角色" sheetId="4" r:id="rId4"/>
     <sheet name="Genshin—Exp" sheetId="5" r:id="rId5"/>
     <sheet name="钓鱼武器" sheetId="6" r:id="rId6"/>
+    <sheet name="圣遗物" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祭礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>螭骨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +291,120 @@
   </si>
   <si>
     <t>差4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生之花</t>
+  </si>
+  <si>
+    <t>死之羽</t>
+  </si>
+  <si>
+    <t>主词条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时之沙</t>
+  </si>
+  <si>
+    <t>空之杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理之冠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素充能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘/如雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海染/少女/乐园/饰金/乐团/沉沦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副词条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通/雷伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通/水伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大生命</t>
+  </si>
+  <si>
+    <t>大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳西妲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭礼大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西风猎弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁峰刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精4了差一级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +476,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,12 +530,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +537,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,15 +838,15 @@
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,12 +857,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -746,7 +870,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -754,7 +878,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -762,7 +886,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -770,7 +894,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -778,7 +902,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -786,7 +910,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -794,7 +918,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -802,7 +926,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -810,7 +934,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -818,7 +942,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -826,7 +950,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -834,7 +958,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -842,7 +966,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -850,7 +974,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -858,7 +982,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -866,7 +990,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -874,7 +998,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -882,7 +1006,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -890,7 +1014,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -898,7 +1022,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -906,7 +1030,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -914,7 +1038,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -922,7 +1046,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -930,7 +1054,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -938,7 +1062,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -946,7 +1070,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -954,7 +1078,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -962,7 +1086,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -970,7 +1094,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -978,7 +1102,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -986,7 +1110,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -994,7 +1118,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1002,7 +1126,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1010,7 +1134,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1018,7 +1142,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1026,7 +1150,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1034,7 +1158,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1042,7 +1166,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1051,7 +1175,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1059,7 +1183,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1067,7 +1191,7 @@
         <v>11525</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1075,7 +1199,7 @@
         <v>12475</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1083,7 +1207,7 @@
         <v>13450</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1091,7 +1215,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1102,7 +1226,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1114,7 +1238,7 @@
         <v>31675</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1126,7 +1250,7 @@
         <v>48950</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1138,7 +1262,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1150,7 +1274,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1162,7 +1286,7 @@
         <v>112800</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1174,7 +1298,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1186,7 +1310,7 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1198,7 +1322,7 @@
         <v>206400</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1210,7 +1334,7 @@
         <v>242400</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1222,7 +1346,7 @@
         <v>474750</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1234,7 +1358,7 @@
         <v>733700</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1246,7 +1370,7 @@
         <v>1019450</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1258,7 +1382,7 @@
         <v>1332275</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1285,21 +1409,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="18.600000000000001">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1461,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1384,30 +1508,30 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1420,8 +1544,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1432,16 +1556,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1452,8 +1576,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1463,8 +1587,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1475,16 +1599,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1519,12 +1643,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1537,48 +1661,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3D5CB-F3C7-4693-9ADA-14C543C9BF8B}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="7.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="7"/>
+    <col min="11" max="11" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1619,44 +1753,52 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="M3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="G4" s="8" t="s">
-        <v>55</v>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1679,138 +1821,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C024A14D-7897-4799-8471-E8D6992C7933}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="11"/>
-    <col min="6" max="6" width="15.5546875" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="9"/>
+    <col min="6" max="6" width="15.5" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="9">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="11">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="10">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="11">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="12" customFormat="1">
-      <c r="A8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="12">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9" s="13">
-        <v>45074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="11" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>45074</v>
       </c>
     </row>
@@ -1818,4 +1960,310 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209F5D9-1111-426E-A8D3-5366D6C150E1}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="F5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="G6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="G7" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B10:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777607D-37FF-4AF2-9816-63620F988B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A44E5-4600-4193-B6FD-F955ED45D1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="3510" windowWidth="25710" windowHeight="14505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9090" yWindow="3855" windowWidth="25710" windowHeight="14505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,42 +258,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨波蜜桃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>翡玉金枪鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兑换后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渔获</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦炮屯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丽莎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,7 +372,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精4了差一级</t>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔导精通高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +463,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Adobe 黑体 Std R"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,6 +529,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,6 +539,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1514,24 +1507,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1545,7 +1538,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1557,7 +1550,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1565,7 +1558,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1577,7 +1570,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1588,7 +1581,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1600,7 +1593,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1608,7 +1601,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1661,58 +1654,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3D5CB-F3C7-4693-9ADA-14C543C9BF8B}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="7.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.25" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.25" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1753,12 +1746,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>48</v>
@@ -1776,7 +1769,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>50</v>
@@ -1791,15 +1784,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E4" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1822,7 +1819,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.75" x14ac:dyDescent="0.2"/>
@@ -1830,7 +1827,7 @@
     <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="9"/>
+    <col min="5" max="5" width="18.375" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="9" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="9"/>
   </cols>
@@ -1839,126 +1836,29 @@
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="9">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9">
-        <v>16</v>
-      </c>
-      <c r="D2" s="9">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="10">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>32</v>
-      </c>
-      <c r="D8" s="10">
-        <v>32</v>
-      </c>
-    </row>
+      <c r="D2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="11">
-        <v>45074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="11">
-        <v>45074</v>
-      </c>
+      <c r="F11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1967,7 +1867,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1983,271 +1883,271 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="12" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G4" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="F5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="G6" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="G7" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="G17" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="F5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="G6" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="G7" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786A44E5-4600-4193-B6FD-F955ED45D1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB05BC-E759-41AC-BBC3-6426863DC88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="3855" windowWidth="25710" windowHeight="14505" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="暗铁剑" sheetId="3" r:id="rId3"/>
     <sheet name="角色" sheetId="4" r:id="rId4"/>
     <sheet name="Genshin—Exp" sheetId="5" r:id="rId5"/>
-    <sheet name="钓鱼武器" sheetId="6" r:id="rId6"/>
-    <sheet name="圣遗物" sheetId="7" r:id="rId7"/>
+    <sheet name="砍树" sheetId="8" r:id="rId6"/>
+    <sheet name="钓鱼武器" sheetId="6" r:id="rId7"/>
+    <sheet name="圣遗物" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +386,22 @@
   </si>
   <si>
     <t>试作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>却砂木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桦木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御伽木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,6 +549,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,9 +561,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -831,15 +849,15 @@
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,12 +868,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -863,7 +881,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -871,7 +889,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -879,7 +897,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -887,7 +905,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -895,7 +913,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -903,7 +921,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -911,7 +929,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -919,7 +937,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -927,7 +945,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -935,7 +953,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -943,7 +961,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -951,7 +969,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -959,7 +977,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -967,7 +985,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -975,7 +993,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1007,7 +1025,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1023,7 +1041,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1039,7 +1057,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1119,7 +1137,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1127,7 +1145,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1135,7 +1153,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1143,7 +1161,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1168,7 +1186,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>11525</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>12475</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1200,7 +1218,7 @@
         <v>13450</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1219,7 +1237,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>31675</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1243,7 +1261,7 @@
         <v>48950</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1255,7 +1273,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1267,7 +1285,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1279,7 +1297,7 @@
         <v>112800</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>206400</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>242400</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>474750</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>733700</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1363,7 +1381,7 @@
         <v>1019450</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1375,7 +1393,7 @@
         <v>1332275</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1402,21 +1420,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="18.600000000000001">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1501,30 +1519,30 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1537,8 +1555,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="15"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1549,16 +1567,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1569,8 +1587,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1580,8 +1598,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1592,16 +1610,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1636,12 +1654,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="20" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1656,56 +1674,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3D5CB-F3C7-4693-9ADA-14C543C9BF8B}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="7.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="7"/>
     <col min="11" max="11" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1746,7 +1764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>82</v>
       </c>
@@ -1784,8 +1802,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E4" s="17" t="s">
+    <row r="4" spans="1:16">
+      <c r="E4" s="14" t="s">
         <v>87</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -1795,7 +1813,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="P6" s="13"/>
     </row>
   </sheetData>
@@ -1815,6 +1833,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E17113-4F5F-45BA-A0E2-0404EDAB7DD1}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.8"/>
+  <cols>
+    <col min="1" max="1" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C024A14D-7897-4799-8471-E8D6992C7933}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1822,17 +1877,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8"/>
   <cols>
     <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="9"/>
+    <col min="2" max="2" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -1840,7 +1895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="D2" s="9" t="s">
         <v>84</v>
       </c>
@@ -1848,11 +1903,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="10" customFormat="1"/>
+    <row r="9" spans="1:6">
       <c r="F9" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="F11" s="11"/>
     </row>
   </sheetData>
@@ -1862,7 +1917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209F5D9-1111-426E-A8D3-5366D6C150E1}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1871,17 +1926,17 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="C1" s="12" t="s">
         <v>56</v>
       </c>
@@ -1898,20 +1953,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17"/>
       <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
@@ -1931,9 +1986,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1946,9 +2001,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="F5" s="12" t="s">
         <v>69</v>
       </c>
@@ -1956,34 +2011,34 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="G6" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="G7" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17"/>
       <c r="B9" s="12" t="s">
         <v>58</v>
       </c>
@@ -2003,9 +2058,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2024,9 +2079,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
         <v>66</v>
       </c>
@@ -2037,9 +2092,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
@@ -2050,9 +2105,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="12" t="s">
         <v>78</v>
       </c>
@@ -2060,20 +2115,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
@@ -2093,9 +2148,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2114,9 +2169,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="12" t="s">
         <v>66</v>
       </c>
@@ -2127,9 +2182,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="12" t="s">
         <v>68</v>
       </c>
@@ -2140,9 +2195,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="12" t="s">
         <v>78</v>
       </c>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB05BC-E759-41AC-BBC3-6426863DC88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AC524-EB70-4030-B3A7-FE356CE68370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,6 +552,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,7 +562,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1525,24 +1525,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1694,34 +1694,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
@@ -1842,24 +1842,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8"/>
   <cols>
-    <col min="1" max="1" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1954,19 +1954,19 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
@@ -1987,8 +1987,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -2002,8 +2002,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="F5" s="12" t="s">
         <v>69</v>
       </c>
@@ -2012,33 +2012,33 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="G6" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="G7" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="12" t="s">
         <v>58</v>
       </c>
@@ -2059,8 +2059,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="12" t="s">
         <v>66</v>
       </c>
@@ -2093,8 +2093,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="12" t="s">
         <v>78</v>
       </c>
@@ -2116,19 +2116,19 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
@@ -2149,8 +2149,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2170,8 +2170,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="12" t="s">
         <v>66</v>
       </c>
@@ -2183,8 +2183,8 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="12" t="s">
         <v>68</v>
       </c>
@@ -2196,8 +2196,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="12" t="s">
         <v>78</v>
       </c>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AC524-EB70-4030-B3A7-FE356CE68370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCC028-4032-4FA1-A8B6-CB46C70CE78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="角色" sheetId="4" r:id="rId4"/>
     <sheet name="Genshin—Exp" sheetId="5" r:id="rId5"/>
     <sheet name="砍树" sheetId="8" r:id="rId6"/>
-    <sheet name="钓鱼武器" sheetId="6" r:id="rId7"/>
-    <sheet name="圣遗物" sheetId="7" r:id="rId8"/>
+    <sheet name="理想词条" sheetId="9" r:id="rId7"/>
+    <sheet name="钓鱼武器" sheetId="6" r:id="rId8"/>
+    <sheet name="圣遗物" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="133">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海染/少女/乐园/饰金/乐团/沉沦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>芭芭拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +399,174 @@
   </si>
   <si>
     <t>御伽木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素充能效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.2%-23.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6..22%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.6%-46.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.5%-35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82-117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98-140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27%-35%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.6%-43.7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.5%-35.0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1254-1793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生之花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死之羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时之沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通/风伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海染/少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比生命/水伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班尼特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比生命/火伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗加成/暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +574,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,17 +642,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Adobe 黑体 Std R"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -508,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,13 +719,10 @@
     <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,7 +732,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,15 +1043,15 @@
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,12 +1062,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -881,7 +1075,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -889,7 +1083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -897,7 +1091,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -905,7 +1099,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -913,7 +1107,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -921,7 +1115,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -929,7 +1123,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -937,7 +1131,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -945,7 +1139,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -953,7 +1147,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -961,7 +1155,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -969,7 +1163,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -977,7 +1171,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -985,7 +1179,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -993,7 +1187,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1001,7 +1195,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1009,7 +1203,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1017,7 +1211,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1025,7 +1219,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1033,7 +1227,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1041,7 +1235,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1049,7 +1243,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1057,7 +1251,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1065,7 +1259,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1073,7 +1267,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1081,7 +1275,7 @@
         <v>4875</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1089,7 +1283,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1097,7 +1291,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1105,7 +1299,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1113,7 +1307,7 @@
         <v>6025</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1121,7 +1315,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1129,7 +1323,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1137,7 +1331,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1145,7 +1339,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1153,7 +1347,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1161,7 +1355,7 @@
         <v>7750</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1169,7 +1363,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1177,7 +1371,7 @@
         <v>8325</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1186,7 +1380,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1194,7 +1388,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1202,7 +1396,7 @@
         <v>11525</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1210,7 +1404,7 @@
         <v>12475</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1218,7 +1412,7 @@
         <v>13450</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1226,7 +1420,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1237,7 +1431,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1249,7 +1443,7 @@
         <v>31675</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1261,7 +1455,7 @@
         <v>48950</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1273,7 +1467,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1285,7 +1479,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1297,7 +1491,7 @@
         <v>112800</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1309,7 +1503,7 @@
         <v>141600</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1321,7 +1515,7 @@
         <v>172800</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1333,7 +1527,7 @@
         <v>206400</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1345,7 +1539,7 @@
         <v>242400</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1357,7 +1551,7 @@
         <v>474750</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1369,7 +1563,7 @@
         <v>733700</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1381,7 +1575,7 @@
         <v>1019450</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1393,7 +1587,7 @@
         <v>1332275</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1420,21 +1614,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="18.600000000000001">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1666,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1519,30 +1713,30 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1555,8 +1749,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1567,16 +1761,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1587,8 +1781,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1598,8 +1792,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1610,16 +1804,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1654,12 +1848,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1678,52 +1872,52 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="7.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="7"/>
     <col min="11" max="11" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -1764,12 +1958,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>48</v>
@@ -1787,7 +1981,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>50</v>
@@ -1802,19 +1996,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="14" t="s">
-        <v>87</v>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E4" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="P6" s="13"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1836,31 +2030,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E17113-4F5F-45BA-A0E2-0404EDAB7DD1}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="1" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1870,6 +2064,1959 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF27DB5-A51E-4DC0-B869-AD238D11400D}">
+  <dimension ref="A1:X49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="3.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="17"/>
+    <col min="11" max="11" width="3.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="17"/>
+    <col min="16" max="16" width="3.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="17"/>
+    <col min="21" max="21" width="3.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="P1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="U1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17">
+        <v>20</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>20</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="17">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="17">
+        <v>1</v>
+      </c>
+      <c r="S2" s="17">
+        <v>20</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="17">
+        <v>1</v>
+      </c>
+      <c r="X2" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="17">
+        <v>717</v>
+      </c>
+      <c r="D3" s="17">
+        <v>4780</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="17">
+        <v>47</v>
+      </c>
+      <c r="I3" s="17">
+        <v>311</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="19">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="X3" s="19">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N4" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="19">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="19">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X4" s="19">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="19">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X5" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="17">
+        <v>28</v>
+      </c>
+      <c r="N6" s="17">
+        <v>187</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="19">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W6" s="19">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="X6" s="19">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="19">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="19">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="17">
+        <v>28</v>
+      </c>
+      <c r="S8" s="17">
+        <v>187</v>
+      </c>
+      <c r="U8" s="18"/>
+      <c r="V8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="19">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="X8" s="19">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="P9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="18"/>
+      <c r="V9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" s="17">
+        <v>28</v>
+      </c>
+      <c r="X9" s="17">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="U10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" s="19">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="S11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="19">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="19">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="S12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="19">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="19">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" s="19">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="20">
+        <v>13.62</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="20">
+        <v>13.62</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="19">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20">
+        <v>15.56</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="20">
+        <v>15.56</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="19">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="20">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W18" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20">
+        <v>19.45</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="20">
+        <v>19.45</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="20">
+        <v>16.32</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="20">
+        <v>16.32</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="20">
+        <v>13.62</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="S20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="20">
+        <v>15.56</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" s="20">
+        <v>13.62</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="X21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="20">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="20">
+        <v>15.56</v>
+      </c>
+      <c r="S22" s="21"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W22" s="20">
+        <v>13.62</v>
+      </c>
+      <c r="X22" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="20">
+        <v>19.45</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="20">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="S23" s="21"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="20">
+        <v>15.56</v>
+      </c>
+      <c r="X23" s="21"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="20">
+        <v>16.32</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="20">
+        <v>19.45</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="20">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="X24" s="21"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R25" s="20">
+        <v>16.32</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="20">
+        <v>19.45</v>
+      </c>
+      <c r="X25" s="21"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="S26" s="21"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="W26" s="20">
+        <v>16.32</v>
+      </c>
+      <c r="X26" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="S27" s="21"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="X27" s="21"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="S28" s="21"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="X28" s="21"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="N29" s="22"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="R29" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="S29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="X29" s="21"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="N30" s="22"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="19">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="W30" s="19">
+        <v>4.53E-2</v>
+      </c>
+      <c r="X30" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="N31" s="22"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="S31" s="22"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="19">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="X31" s="22"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="20">
+        <v>16.2</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="20">
+        <v>16.2</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="19">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="S32" s="22"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="X32" s="22"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="N33" s="22"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R33" s="19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="19">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="X33" s="22"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="N34" s="22"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="S34" s="22"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="W34" s="19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="X34" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="N35" s="22"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="S35" s="22"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="X35" s="22"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="20">
+        <v>16.2</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="19">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="S36" s="22"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="19">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="X36" s="22"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="N37" s="21"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="R37" s="20">
+        <v>16.2</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="19">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="X37" s="22"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="N38" s="21"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="S38" s="21"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="W38" s="20">
+        <v>16.2</v>
+      </c>
+      <c r="X38" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="N39" s="21"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="S39" s="21"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="20">
+        <v>18.52</v>
+      </c>
+      <c r="X39" s="21"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="20">
+        <v>209.13</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="20">
+        <v>209.13</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="S40" s="21"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="20">
+        <v>20.83</v>
+      </c>
+      <c r="X40" s="21"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="20">
+        <v>239</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="20">
+        <v>239</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="R41" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="S41" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="20">
+        <v>23.15</v>
+      </c>
+      <c r="X41" s="21"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="20">
+        <v>268.88</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="20">
+        <v>268.88</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="S42" s="22"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="W42" s="19">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="X42" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="20">
+        <v>298.75</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="20">
+        <v>298.75</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="S43" s="22"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="19">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="X43" s="22"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="20">
+        <v>209.13</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="S44" s="22"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="19">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="X44" s="22"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="20">
+        <v>239</v>
+      </c>
+      <c r="N45" s="21"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="R45" s="20">
+        <v>209.13</v>
+      </c>
+      <c r="S45" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="X45" s="22"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="20">
+        <v>268.88</v>
+      </c>
+      <c r="N46" s="21"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="20">
+        <v>239</v>
+      </c>
+      <c r="S46" s="21"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="W46" s="20">
+        <v>209.13</v>
+      </c>
+      <c r="X46" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="20">
+        <v>298.75</v>
+      </c>
+      <c r="N47" s="21"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="20">
+        <v>268.88</v>
+      </c>
+      <c r="S47" s="21"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="20">
+        <v>239</v>
+      </c>
+      <c r="X47" s="21"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="20">
+        <v>298.75</v>
+      </c>
+      <c r="S48" s="21"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="20">
+        <v>268.88</v>
+      </c>
+      <c r="X48" s="21"/>
+    </row>
+    <row r="49" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="20">
+        <v>298.75</v>
+      </c>
+      <c r="X49" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="113">
+    <mergeCell ref="V42:V45"/>
+    <mergeCell ref="X42:X45"/>
+    <mergeCell ref="V46:V49"/>
+    <mergeCell ref="X46:X49"/>
+    <mergeCell ref="V30:V33"/>
+    <mergeCell ref="X30:X33"/>
+    <mergeCell ref="V34:V37"/>
+    <mergeCell ref="X34:X37"/>
+    <mergeCell ref="V38:V41"/>
+    <mergeCell ref="X38:X41"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="V18:V21"/>
+    <mergeCell ref="X18:X21"/>
+    <mergeCell ref="V22:V25"/>
+    <mergeCell ref="X22:X25"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="X26:X29"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="S41:S44"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="S45:S48"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="U10:U49"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X13"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="S29:S32"/>
+    <mergeCell ref="Q33:Q36"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="Q37:Q40"/>
+    <mergeCell ref="S37:S40"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="P9:P48"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K47"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A4:A43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F4:F43"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C024A14D-7897-4799-8471-E8D6992C7933}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -1877,17 +4024,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="14.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -1895,19 +4042,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1"/>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="11"/>
     </row>
   </sheetData>
@@ -1917,296 +4064,657 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209F5D9-1111-426E-A8D3-5366D6C150E1}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="2" width="6.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="18"/>
-      <c r="B3" s="12" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="F5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="G6" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="G7" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G15" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="12" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G16" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="F5" s="12" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G17" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="G6" s="12" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="G7" s="12" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="18" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="18"/>
-      <c r="B9" s="12" t="s">
+      <c r="C22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C27" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E27" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="24"/>
+      <c r="B33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="12" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D37" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E37" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="F37" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>71</v>
+      <c r="G37" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="B16:B19"/>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DCC028-4032-4FA1-A8B6-CB46C70CE78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA48F35-62E7-428C-AE43-1C272984813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,10 +657,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
+      <name val="思源黑体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -726,6 +726,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,19 +744,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1719,24 +1719,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1813,7 +1813,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1888,34 +1888,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -2073,1914 +2073,1833 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="3.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="17"/>
-    <col min="11" max="11" width="3.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="17"/>
-    <col min="16" max="16" width="3.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="17"/>
-    <col min="21" max="21" width="3.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="3.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
+    <col min="6" max="6" width="3.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="15"/>
+    <col min="11" max="11" width="3.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="15"/>
+    <col min="16" max="16" width="3.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="15"/>
+    <col min="21" max="21" width="3.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="P1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="U1" s="18" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="U1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="15">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>1</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <v>20</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="15">
         <v>1</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>20</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="15">
         <v>1</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="15">
         <v>20</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="15">
         <v>1</v>
       </c>
-      <c r="X2" s="17">
+      <c r="X2" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>717</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>4780</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>47</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>311</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="17" t="s">
+      <c r="U3" s="20"/>
+      <c r="V3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="19">
+      <c r="W3" s="16">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="X3" s="19">
+      <c r="X3" s="16">
         <v>0.622</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="17" t="s">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="16">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="16">
         <v>0.58299999999999996</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="17" t="s">
+      <c r="U4" s="20"/>
+      <c r="V4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="16">
         <v>4.7E-2</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="16">
         <v>0.311</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19">
+      <c r="D5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17" t="s">
+      <c r="I5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="16">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="16">
         <v>0.58299999999999996</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="17" t="s">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="17" t="s">
+      <c r="U5" s="20"/>
+      <c r="V5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="16">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19">
+      <c r="D6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17" t="s">
+      <c r="I6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <v>28</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="15">
         <v>187</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="17" t="s">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="16">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="16">
         <v>0.58299999999999996</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="17" t="s">
+      <c r="U6" s="20"/>
+      <c r="V6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="16">
         <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19">
+      <c r="D7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
+      <c r="I7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="16">
         <v>0.51800000000000002</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17" t="s">
+      <c r="P7" s="20"/>
+      <c r="Q7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="20"/>
+      <c r="V7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="16">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="17" t="s">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="15">
         <v>28</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="15">
         <v>187</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="17" t="s">
+      <c r="U8" s="20"/>
+      <c r="V8" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="16">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="16">
         <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19" t="s">
+      <c r="D9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19">
+      <c r="I9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="P9" s="18" t="s">
+      <c r="N9" s="20"/>
+      <c r="P9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="17" t="s">
+      <c r="U9" s="20"/>
+      <c r="V9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="15">
         <v>28</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="15">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19">
+      <c r="D10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19">
+      <c r="I10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="19">
+      <c r="N10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="U10" s="18" t="s">
+      <c r="S10" s="20"/>
+      <c r="U10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="X10" s="18" t="s">
+      <c r="X10" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19">
+      <c r="D11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19">
+      <c r="I11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="19">
+      <c r="N11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="19">
+      <c r="S11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="X11" s="18"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18" t="s">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19">
+      <c r="S12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X12" s="18"/>
+      <c r="X12" s="20"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19">
+      <c r="D13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19" t="s">
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18" t="s">
+      <c r="N13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="19">
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="X13" s="18"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19">
+      <c r="D14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19">
+      <c r="I14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="19" t="s">
+      <c r="N14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18" t="s">
+      <c r="S14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="19">
+      <c r="W14" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="X14" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19">
+      <c r="D15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19">
+      <c r="I15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19">
+      <c r="N15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19" t="s">
+      <c r="S15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="X15" s="18"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>13.62</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>13.62</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18" t="s">
+      <c r="K16" s="20"/>
+      <c r="L16" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="19">
+      <c r="S16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="X16" s="18"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="17">
         <v>15.56</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20">
+      <c r="D17" s="22"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="17">
         <v>15.56</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19">
+      <c r="I17" s="22"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18" t="s">
+      <c r="N17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="19">
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="X17" s="18"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="20">
+      <c r="D18" s="22"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19">
+      <c r="I18" s="22"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19">
+      <c r="N18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="S18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18" t="s">
+      <c r="S18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W18" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="X18" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="17">
         <v>19.45</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="20">
+      <c r="D19" s="22"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="17">
         <v>19.45</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19">
+      <c r="I19" s="22"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="19">
+      <c r="N19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="S19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="19">
+      <c r="S19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X19" s="18"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>16.32</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="17">
         <v>16.32</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18" t="s">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="17">
         <v>13.62</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="19">
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="19">
+      <c r="S20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="X20" s="18"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="20">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="17">
         <v>18.52</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20">
+      <c r="D21" s="22"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="17">
         <v>18.52</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="20">
+      <c r="I21" s="22"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="17">
         <v>15.56</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18" t="s">
+      <c r="N21" s="22"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="17">
         <v>13.62</v>
       </c>
-      <c r="S21" s="21" t="s">
+      <c r="S21" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="19">
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X21" s="18"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="20">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="17">
         <v>20.83</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="20">
+      <c r="D22" s="22"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="17">
         <v>20.83</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="20">
+      <c r="I22" s="22"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="20">
+      <c r="N22" s="22"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="17">
         <v>15.56</v>
       </c>
-      <c r="S22" s="21"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18" t="s">
+      <c r="S22" s="22"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="17">
         <v>13.62</v>
       </c>
-      <c r="X22" s="21" t="s">
+      <c r="X22" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="20">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="17">
         <v>23.15</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="20">
+      <c r="D23" s="22"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="17">
         <v>23.15</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="20">
+      <c r="I23" s="22"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="17">
         <v>19.45</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="20">
+      <c r="N23" s="22"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="S23" s="21"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="20">
+      <c r="S23" s="22"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="17">
         <v>15.56</v>
       </c>
-      <c r="X23" s="21"/>
+      <c r="X23" s="22"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18" t="s">
+      <c r="K24" s="20"/>
+      <c r="L24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="17">
         <v>16.32</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="20">
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="17">
         <v>19.45</v>
       </c>
-      <c r="S24" s="21"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="20">
+      <c r="S24" s="22"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="X24" s="21"/>
+      <c r="X24" s="22"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19">
+      <c r="D25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="20">
+      <c r="I25" s="21"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="17">
         <v>18.52</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18" t="s">
+      <c r="N25" s="22"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="17">
         <v>16.32</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="S25" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="20">
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="17">
         <v>19.45</v>
       </c>
-      <c r="X25" s="21"/>
+      <c r="X25" s="22"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
+      <c r="D26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="20">
+      <c r="I26" s="21"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="17">
         <v>20.83</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="20">
+      <c r="N26" s="22"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="17">
         <v>18.52</v>
       </c>
-      <c r="S26" s="21"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18" t="s">
+      <c r="S26" s="22"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="W26" s="20">
+      <c r="W26" s="17">
         <v>16.32</v>
       </c>
-      <c r="X26" s="21" t="s">
+      <c r="X26" s="22" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="D27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="20">
+      <c r="I27" s="21"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="17">
         <v>23.15</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="20">
+      <c r="N27" s="22"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="17">
         <v>20.83</v>
       </c>
-      <c r="S27" s="21"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="20">
+      <c r="S27" s="22"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="17">
         <v>18.52</v>
       </c>
-      <c r="X27" s="21"/>
+      <c r="X27" s="22"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18" t="s">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="20">
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="17">
         <v>23.15</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="20">
+      <c r="S28" s="22"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="17">
         <v>20.83</v>
       </c>
-      <c r="X28" s="21"/>
+      <c r="X28" s="22"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="D29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19">
+      <c r="I29" s="21"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="N29" s="22"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18" t="s">
+      <c r="N29" s="21"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="S29" s="22" t="s">
+      <c r="S29" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="20">
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="17">
         <v>23.15</v>
       </c>
-      <c r="X29" s="21"/>
+      <c r="X29" s="22"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19">
+      <c r="D30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19">
+      <c r="I30" s="21"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N30" s="22"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="19">
+      <c r="N30" s="21"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="S30" s="22"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18" t="s">
+      <c r="S30" s="21"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="W30" s="19">
+      <c r="W30" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="X30" s="22" t="s">
+      <c r="X30" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19">
+      <c r="D31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19">
+      <c r="I31" s="21"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="N31" s="22"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="19">
+      <c r="N31" s="21"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S31" s="22"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="19">
+      <c r="S31" s="21"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="X31" s="22"/>
+      <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="17">
         <v>16.2</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="17">
         <v>16.2</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18" t="s">
+      <c r="K32" s="20"/>
+      <c r="L32" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="19">
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="S32" s="22"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="19">
+      <c r="S32" s="21"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X32" s="22"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="17">
         <v>18.52</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="20">
+      <c r="D33" s="22"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="17">
         <v>18.52</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19">
+      <c r="I33" s="22"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N33" s="22"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18" t="s">
+      <c r="N33" s="21"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="S33" s="22" t="s">
+      <c r="S33" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="19">
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="X33" s="22"/>
+      <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="20">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17">
         <v>20.83</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="20">
+      <c r="D34" s="22"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="17">
         <v>20.83</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="19">
+      <c r="I34" s="22"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="N34" s="22"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="19">
+      <c r="N34" s="21"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S34" s="22"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18" t="s">
+      <c r="S34" s="21"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="W34" s="19">
+      <c r="W34" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="X34" s="22" t="s">
+      <c r="X34" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="20">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="17">
         <v>23.15</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="20">
+      <c r="D35" s="22"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="17">
         <v>23.15</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19">
+      <c r="I35" s="22"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="N35" s="22"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="19">
+      <c r="N35" s="21"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="19">
+      <c r="S35" s="21"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X35" s="22"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18" t="s">
+      <c r="K36" s="20"/>
+      <c r="L36" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="17">
         <v>16.2</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="19">
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="S36" s="22"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="19">
+      <c r="S36" s="21"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="X36" s="22"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19">
+      <c r="D37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="20">
+      <c r="I37" s="21"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="17">
         <v>18.52</v>
       </c>
-      <c r="N37" s="21"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18" t="s">
+      <c r="N37" s="22"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R37" s="20">
+      <c r="R37" s="17">
         <v>16.2</v>
       </c>
-      <c r="S37" s="21" t="s">
+      <c r="S37" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="19">
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="X37" s="22"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19">
+      <c r="D38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="20">
+      <c r="I38" s="21"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="17">
         <v>20.83</v>
       </c>
-      <c r="N38" s="21"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="20">
+      <c r="N38" s="22"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="17">
         <v>18.52</v>
       </c>
-      <c r="S38" s="21"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18" t="s">
+      <c r="S38" s="22"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="W38" s="20">
+      <c r="W38" s="17">
         <v>16.2</v>
       </c>
-      <c r="X38" s="21" t="s">
+      <c r="X38" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19">
+      <c r="D39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="20">
+      <c r="I39" s="21"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="17">
         <v>23.15</v>
       </c>
-      <c r="N39" s="21"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="20">
+      <c r="N39" s="22"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="17">
         <v>20.83</v>
       </c>
-      <c r="S39" s="21"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="20">
+      <c r="S39" s="22"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="17">
         <v>18.52</v>
       </c>
-      <c r="X39" s="21"/>
+      <c r="X39" s="22"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="17">
         <v>209.13</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="17">
         <v>209.13</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18" t="s">
+      <c r="K40" s="20"/>
+      <c r="L40" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="20">
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="17">
         <v>23.15</v>
       </c>
-      <c r="S40" s="21"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="20">
+      <c r="S40" s="22"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="17">
         <v>20.83</v>
       </c>
-      <c r="X40" s="21"/>
+      <c r="X40" s="22"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="20">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="17">
         <v>239</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="20">
+      <c r="D41" s="22"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="17">
         <v>239</v>
       </c>
-      <c r="I41" s="21"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19">
+      <c r="I41" s="22"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="N41" s="22"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18" t="s">
+      <c r="N41" s="21"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="R41" s="19">
+      <c r="R41" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="S41" s="22" t="s">
+      <c r="S41" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="20">
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="17">
         <v>23.15</v>
       </c>
-      <c r="X41" s="21"/>
+      <c r="X41" s="22"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="20">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="17">
         <v>268.88</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="20">
+      <c r="D42" s="22"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="17">
         <v>268.88</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="19">
+      <c r="I42" s="22"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="N42" s="22"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="19">
+      <c r="N42" s="21"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="S42" s="22"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18" t="s">
+      <c r="S42" s="21"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="W42" s="19">
+      <c r="W42" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="X42" s="22" t="s">
+      <c r="X42" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="20">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="17">
         <v>298.75</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="20">
+      <c r="D43" s="22"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="17">
         <v>298.75</v>
       </c>
-      <c r="I43" s="21"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="19">
+      <c r="I43" s="22"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N43" s="22"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="19">
+      <c r="N43" s="21"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="S43" s="22"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="19">
+      <c r="S43" s="21"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X43" s="22"/>
+      <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="K44" s="18"/>
-      <c r="L44" s="18" t="s">
+      <c r="K44" s="20"/>
+      <c r="L44" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="17">
         <v>209.13</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="19">
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S44" s="22"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="19">
+      <c r="S44" s="21"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="X44" s="22"/>
+      <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="20">
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="17">
         <v>239</v>
       </c>
-      <c r="N45" s="21"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18" t="s">
+      <c r="N45" s="22"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="R45" s="20">
+      <c r="R45" s="17">
         <v>209.13</v>
       </c>
-      <c r="S45" s="21" t="s">
+      <c r="S45" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="19">
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X45" s="22"/>
+      <c r="X45" s="21"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="20">
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="17">
         <v>268.88</v>
       </c>
-      <c r="N46" s="21"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="20">
+      <c r="N46" s="22"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="17">
         <v>239</v>
       </c>
-      <c r="S46" s="21"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18" t="s">
+      <c r="S46" s="22"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="W46" s="20">
+      <c r="W46" s="17">
         <v>209.13</v>
       </c>
-      <c r="X46" s="21" t="s">
+      <c r="X46" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="20">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="17">
         <v>298.75</v>
       </c>
-      <c r="N47" s="21"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="20">
+      <c r="N47" s="22"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="17">
         <v>268.88</v>
       </c>
-      <c r="S47" s="21"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="20">
+      <c r="S47" s="22"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="17">
         <v>239</v>
       </c>
-      <c r="X47" s="21"/>
+      <c r="X47" s="22"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="20">
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="17">
         <v>298.75</v>
       </c>
-      <c r="S48" s="21"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="20">
+      <c r="S48" s="22"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="17">
         <v>268.88</v>
       </c>
-      <c r="X48" s="21"/>
+      <c r="X48" s="22"/>
     </row>
     <row r="49" spans="21:24" x14ac:dyDescent="0.2">
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="20">
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="17">
         <v>298.75</v>
       </c>
-      <c r="X49" s="21"/>
+      <c r="X49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="V42:V45"/>
-    <mergeCell ref="X42:X45"/>
-    <mergeCell ref="V46:V49"/>
-    <mergeCell ref="X46:X49"/>
-    <mergeCell ref="V30:V33"/>
-    <mergeCell ref="X30:X33"/>
-    <mergeCell ref="V34:V37"/>
-    <mergeCell ref="X34:X37"/>
-    <mergeCell ref="V38:V41"/>
-    <mergeCell ref="X38:X41"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="V18:V21"/>
-    <mergeCell ref="X18:X21"/>
-    <mergeCell ref="V22:V25"/>
-    <mergeCell ref="X22:X25"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="X26:X29"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="S41:S44"/>
-    <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="S45:S48"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="U10:U49"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X13"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="Q29:Q32"/>
-    <mergeCell ref="S29:S32"/>
-    <mergeCell ref="Q33:Q36"/>
-    <mergeCell ref="S33:S36"/>
-    <mergeCell ref="Q37:Q40"/>
-    <mergeCell ref="S37:S40"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="P9:P48"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K47"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="D40:D43"/>
     <mergeCell ref="A4:A43"/>
@@ -4005,10 +3924,91 @@
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K47"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="P9:P48"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="S45:S48"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="U10:U49"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X13"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="S29:S32"/>
+    <mergeCell ref="Q33:Q36"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="Q37:Q40"/>
+    <mergeCell ref="S37:S40"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="V18:V21"/>
+    <mergeCell ref="X18:X21"/>
+    <mergeCell ref="V22:V25"/>
+    <mergeCell ref="X22:X25"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="X26:X29"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="S41:S44"/>
+    <mergeCell ref="V42:V45"/>
+    <mergeCell ref="X42:X45"/>
+    <mergeCell ref="V46:V49"/>
+    <mergeCell ref="X46:X49"/>
+    <mergeCell ref="V30:V33"/>
+    <mergeCell ref="X30:X33"/>
+    <mergeCell ref="V34:V37"/>
+    <mergeCell ref="X34:X37"/>
+    <mergeCell ref="V38:V41"/>
+    <mergeCell ref="X38:X41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4069,15 +4069,15 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.75" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -4706,6 +4706,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="B34:B37"/>
@@ -4715,15 +4724,6 @@
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3D2DE-24CD-4B11-A02B-E11065D9DFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802D547-6EAB-4724-AA13-E435EF913E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="167">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充能百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,15 +570,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翠绿4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宗室4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绝缘4</t>
+    <t>参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰元素加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战技E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘4件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗室4件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠绿4件套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火伤元素加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草伤元素加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,6 +799,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -700,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +884,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,6 +903,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,7 +1198,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1738,24 +1877,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1769,7 +1908,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -1781,7 +1920,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1789,7 +1928,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="C5" s="6">
         <v>2</v>
       </c>
@@ -1801,7 +1940,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1812,7 +1951,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1824,7 +1963,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1832,7 +1971,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -1907,34 +2046,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="21"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
@@ -1979,10 +2118,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>48</v>
@@ -2000,7 +2139,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>50</v>
@@ -2017,13 +2156,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="E4" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2064,16 +2203,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2110,10 +2249,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="D2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="10" customFormat="1"/>
@@ -2168,40 +2307,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="K1" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="P1" s="22" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="P1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="U1" s="22" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="U1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24">
       <c r="B2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
@@ -2210,7 +2349,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
@@ -2219,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" s="15">
         <v>1</v>
@@ -2228,7 +2367,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R2" s="15">
         <v>1</v>
@@ -2236,11 +2375,11 @@
       <c r="S2" s="15">
         <v>20</v>
       </c>
-      <c r="U2" s="22" t="s">
-        <v>90</v>
+      <c r="U2" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W2" s="15">
         <v>1</v>
@@ -2251,10 +2390,10 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="15">
         <v>717</v>
@@ -2263,7 +2402,7 @@
         <v>4780</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>61</v>
@@ -2274,8 +2413,8 @@
       <c r="I3" s="15">
         <v>311</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>90</v>
+      <c r="K3" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>61</v>
@@ -2286,11 +2425,11 @@
       <c r="N3" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="P3" s="22" t="s">
-        <v>90</v>
+      <c r="P3" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R3" s="16">
         <v>7.0000000000000007E-2</v>
@@ -2298,7 +2437,7 @@
       <c r="S3" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="U3" s="22"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="15" t="s">
         <v>66</v>
       </c>
@@ -2310,31 +2449,31 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H4" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="23"/>
       <c r="L4" s="15" t="s">
         <v>63</v>
       </c>
@@ -2344,9 +2483,9 @@
       <c r="N4" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="23"/>
       <c r="Q4" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R4" s="16">
         <v>8.6999999999999994E-2</v>
@@ -2354,7 +2493,7 @@
       <c r="S4" s="16">
         <v>0.58299999999999996</v>
       </c>
-      <c r="U4" s="22"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="15" t="s">
         <v>68</v>
       </c>
@@ -2366,21 +2505,21 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M5" s="16">
         <v>8.6999999999999994E-2</v>
@@ -2388,9 +2527,9 @@
       <c r="N5" s="16">
         <v>0.58299999999999996</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="23"/>
       <c r="Q5" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R5" s="16">
         <v>7.0000000000000007E-2</v>
@@ -2398,9 +2537,9 @@
       <c r="S5" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="U5" s="22"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W5" s="16">
         <v>7.0000000000000007E-2</v>
@@ -2410,21 +2549,21 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M6" s="15">
         <v>28</v>
@@ -2432,9 +2571,9 @@
       <c r="N6" s="15">
         <v>187</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="23"/>
       <c r="Q6" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R6" s="16">
         <v>8.6999999999999994E-2</v>
@@ -2442,9 +2581,9 @@
       <c r="S6" s="16">
         <v>0.58299999999999996</v>
       </c>
-      <c r="U6" s="22"/>
+      <c r="U6" s="23"/>
       <c r="V6" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W6" s="16">
         <v>5.3999999999999999E-2</v>
@@ -2454,21 +2593,21 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="16">
         <v>7.8E-2</v>
@@ -2476,9 +2615,9 @@
       <c r="N7" s="16">
         <v>0.51800000000000002</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="23"/>
       <c r="Q7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R7" s="16">
         <v>7.0000000000000007E-2</v>
@@ -2486,9 +2625,9 @@
       <c r="S7" s="16">
         <v>0.46600000000000003</v>
       </c>
-      <c r="U7" s="22"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W7" s="16">
         <v>7.0000000000000007E-2</v>
@@ -2498,41 +2637,41 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
+      <c r="D8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
         <v>68</v>
       </c>
       <c r="H8" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="22" t="s">
+      <c r="I8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="23" t="s">
         <v>66</v>
       </c>
       <c r="M8" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" s="22"/>
+      <c r="N8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="23"/>
       <c r="Q8" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" s="15">
         <v>28</v>
@@ -2540,9 +2679,9 @@
       <c r="S8" s="15">
         <v>187</v>
       </c>
-      <c r="U8" s="22"/>
+      <c r="U8" s="23"/>
       <c r="V8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W8" s="16">
         <v>8.6999999999999994E-2</v>
@@ -2552,39 +2691,39 @@
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="P9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="22" t="s">
+      <c r="N9" s="23"/>
+      <c r="P9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>66</v>
       </c>
       <c r="R9" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="S9" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="U9" s="22"/>
+      <c r="S9" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" s="23"/>
       <c r="V9" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W9" s="15">
         <v>28</v>
@@ -2594,1388 +2733,1451 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="U10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" s="22" t="s">
+      <c r="S10" s="23"/>
+      <c r="U10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="23" t="s">
         <v>66</v>
       </c>
       <c r="W10" s="16">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="X10" s="22" t="s">
-        <v>98</v>
+      <c r="X10" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
       <c r="R11" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="S11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="16">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="X11" s="22"/>
+      <c r="X11" s="23"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22" t="s">
-        <v>102</v>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="C12" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22" t="s">
-        <v>102</v>
       </c>
       <c r="H12" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22" t="s">
+      <c r="I12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
         <v>68</v>
       </c>
       <c r="M12" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="N12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="N12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
+      <c r="S12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X12" s="22"/>
+      <c r="X12" s="23"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="R13" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="S13" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+      <c r="S13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
       <c r="W13" s="16">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="X13" s="22"/>
+      <c r="X13" s="23"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
       <c r="R14" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23" t="s">
         <v>68</v>
       </c>
       <c r="W14" s="16">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="X14" s="22" t="s">
-        <v>100</v>
+      <c r="X14" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
       <c r="R15" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="S15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
       <c r="W15" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="X15" s="23"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="17">
         <v>13.62</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
+      <c r="D16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="17">
         <v>13.62</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22" t="s">
+      <c r="I16" s="24" t="s">
         <v>102</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="M16" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="N16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="N16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
       <c r="R16" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
+      <c r="S16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="16">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="X16" s="22"/>
+      <c r="X16" s="23"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="17">
         <v>15.56</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="17">
         <v>15.56</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="24"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22" t="s">
-        <v>102</v>
+      <c r="N17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="R17" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="S17" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+      <c r="S17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
       <c r="W17" s="16">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="X17" s="22"/>
+      <c r="X17" s="23"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
       <c r="R18" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="S18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22" t="s">
-        <v>102</v>
+      <c r="S18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="W18" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="X18" s="22" t="s">
-        <v>101</v>
+      <c r="X18" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="17">
         <v>19.45</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="D19" s="24"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="17">
         <v>19.45</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
       <c r="R19" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="S19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
+      <c r="S19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X19" s="22"/>
+      <c r="X19" s="23"/>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22" t="s">
-        <v>94</v>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="C20" s="17">
         <v>16.32</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22" t="s">
-        <v>94</v>
+      <c r="D20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="H20" s="17">
         <v>16.32</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22" t="s">
+      <c r="I20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23" t="s">
         <v>61</v>
       </c>
       <c r="M20" s="17">
         <v>13.62</v>
       </c>
-      <c r="N20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="N20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
       <c r="R20" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
+      <c r="S20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
       <c r="W20" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="23"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="17">
         <v>18.52</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="D21" s="24"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="17">
         <v>18.52</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="I21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="17">
         <v>15.56</v>
       </c>
-      <c r="N21" s="23"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22" t="s">
+      <c r="N21" s="24"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23" t="s">
         <v>61</v>
       </c>
       <c r="R21" s="17">
         <v>13.62</v>
       </c>
-      <c r="S21" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
+      <c r="S21" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
       <c r="W21" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X21" s="22"/>
+      <c r="X21" s="23"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="17">
         <v>20.83</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="17">
         <v>20.83</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="I22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
+      <c r="N22" s="24"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
       <c r="R22" s="17">
         <v>15.56</v>
       </c>
-      <c r="S22" s="23"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22" t="s">
+      <c r="S22" s="24"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23" t="s">
         <v>61</v>
       </c>
       <c r="W22" s="17">
         <v>13.62</v>
       </c>
-      <c r="X22" s="23" t="s">
-        <v>103</v>
+      <c r="X22" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="17">
         <v>23.15</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="D23" s="24"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="17">
         <v>23.15</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="24"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="17">
         <v>19.45</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
+      <c r="N23" s="24"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
       <c r="R23" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="S23" s="23"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="S23" s="24"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
       <c r="W23" s="17">
         <v>15.56</v>
       </c>
-      <c r="X23" s="23"/>
+      <c r="X23" s="24"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22" t="s">
-        <v>95</v>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C24" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22" t="s">
-        <v>95</v>
+      <c r="D24" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="H24" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22" t="s">
-        <v>94</v>
+      <c r="I24" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="M24" s="17">
         <v>16.32</v>
       </c>
-      <c r="N24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="N24" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
       <c r="R24" s="17">
         <v>19.45</v>
       </c>
-      <c r="S24" s="23"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="S24" s="24"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="17">
         <v>17.510000000000002</v>
       </c>
-      <c r="X24" s="23"/>
+      <c r="X24" s="24"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="D25" s="25"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="I25" s="25"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="17">
         <v>18.52</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22" t="s">
-        <v>94</v>
+      <c r="N25" s="24"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="R25" s="17">
         <v>16.32</v>
       </c>
-      <c r="S25" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="S25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
       <c r="W25" s="17">
         <v>19.45</v>
       </c>
-      <c r="X25" s="23"/>
+      <c r="X25" s="24"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="D26" s="25"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
+      <c r="I26" s="25"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="17">
         <v>20.83</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="N26" s="24"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="17">
         <v>18.52</v>
       </c>
-      <c r="S26" s="23"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22" t="s">
-        <v>94</v>
+      <c r="S26" s="24"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="W26" s="17">
         <v>16.32</v>
       </c>
-      <c r="X26" s="23" t="s">
-        <v>104</v>
+      <c r="X26" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="D27" s="25"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+      <c r="I27" s="25"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="17">
         <v>23.15</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
+      <c r="N27" s="24"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
       <c r="R27" s="17">
         <v>20.83</v>
       </c>
-      <c r="S27" s="23"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
+      <c r="S27" s="24"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
       <c r="W27" s="17">
         <v>18.52</v>
       </c>
-      <c r="X27" s="23"/>
+      <c r="X27" s="24"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
-        <v>97</v>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22" t="s">
-        <v>97</v>
+      <c r="D28" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="H28" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="I28" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22" t="s">
-        <v>95</v>
+      <c r="I28" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="M28" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="N28" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="N28" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
       <c r="R28" s="17">
         <v>23.15</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
+      <c r="S28" s="24"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
       <c r="W28" s="17">
         <v>20.83</v>
       </c>
-      <c r="X28" s="23"/>
+      <c r="X28" s="24"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="D29" s="25"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="N29" s="24"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22" t="s">
-        <v>95</v>
+      <c r="N29" s="25"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="R29" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="S29" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
+      <c r="S29" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
       <c r="W29" s="17">
         <v>23.15</v>
       </c>
-      <c r="X29" s="23"/>
+      <c r="X29" s="24"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="D30" s="25"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N30" s="24"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
+      <c r="N30" s="25"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
       <c r="R30" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="S30" s="24"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22" t="s">
-        <v>95</v>
+      <c r="S30" s="25"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="W30" s="16">
         <v>4.53E-2</v>
       </c>
-      <c r="X30" s="24" t="s">
-        <v>105</v>
+      <c r="X30" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="D31" s="25"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="I31" s="25"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="N31" s="24"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="N31" s="25"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
       <c r="R31" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S31" s="24"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
+      <c r="S31" s="25"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
       <c r="W31" s="16">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="X31" s="24"/>
+      <c r="X31" s="25"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22" t="s">
-        <v>96</v>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C32" s="17">
         <v>16.2</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22" t="s">
-        <v>96</v>
+      <c r="D32" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H32" s="17">
         <v>16.2</v>
       </c>
-      <c r="I32" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22" t="s">
-        <v>97</v>
+      <c r="I32" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="M32" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N32" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
+      <c r="N32" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
       <c r="R32" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="S32" s="24"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
+      <c r="S32" s="25"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
       <c r="W32" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X32" s="24"/>
+      <c r="X32" s="25"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="17">
         <v>18.52</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="24"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="17">
         <v>18.52</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="I33" s="24"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N33" s="24"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22" t="s">
-        <v>97</v>
+      <c r="N33" s="25"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="R33" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="S33" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
+      <c r="S33" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
       <c r="W33" s="16">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="X33" s="24"/>
+      <c r="X33" s="25"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="17">
         <v>20.83</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="D34" s="24"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="17">
         <v>20.83</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="24"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="N34" s="24"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
+      <c r="N34" s="25"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
       <c r="R34" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S34" s="24"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22" t="s">
-        <v>97</v>
+      <c r="S34" s="25"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="W34" s="16">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="X34" s="24" t="s">
-        <v>106</v>
+      <c r="X34" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="17">
         <v>23.15</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="D35" s="24"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="17">
         <v>23.15</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
+      <c r="I35" s="24"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="N35" s="24"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+      <c r="N35" s="25"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
       <c r="R35" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="S35" s="24"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
+      <c r="S35" s="25"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
       <c r="W35" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X35" s="24"/>
+      <c r="X35" s="25"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
-        <v>109</v>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C36" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="H36" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="I36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22" t="s">
-        <v>96</v>
+      <c r="I36" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="M36" s="17">
         <v>16.2</v>
       </c>
-      <c r="N36" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
+      <c r="N36" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
       <c r="R36" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="S36" s="24"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
+      <c r="S36" s="25"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
       <c r="W36" s="16">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="X36" s="24"/>
+      <c r="X36" s="25"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="D37" s="25"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
+      <c r="I37" s="25"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="17">
         <v>18.52</v>
       </c>
-      <c r="N37" s="23"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22" t="s">
-        <v>96</v>
+      <c r="N37" s="24"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="R37" s="17">
         <v>16.2</v>
       </c>
-      <c r="S37" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
+      <c r="S37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
       <c r="W37" s="16">
         <v>7.2900000000000006E-2</v>
       </c>
-      <c r="X37" s="24"/>
+      <c r="X37" s="25"/>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="D38" s="25"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
+      <c r="I38" s="25"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
       <c r="M38" s="17">
         <v>20.83</v>
       </c>
-      <c r="N38" s="23"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="N38" s="24"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
       <c r="R38" s="17">
         <v>18.52</v>
       </c>
-      <c r="S38" s="23"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22" t="s">
-        <v>96</v>
+      <c r="S38" s="24"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="W38" s="17">
         <v>16.2</v>
       </c>
-      <c r="X38" s="23" t="s">
-        <v>107</v>
+      <c r="X38" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="D39" s="25"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="I39" s="25"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="17">
         <v>23.15</v>
       </c>
-      <c r="N39" s="23"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+      <c r="N39" s="24"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
       <c r="R39" s="17">
         <v>20.83</v>
       </c>
-      <c r="S39" s="23"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
+      <c r="S39" s="24"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
       <c r="W39" s="17">
         <v>18.52</v>
       </c>
-      <c r="X39" s="23"/>
+      <c r="X39" s="24"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="17">
         <v>209.13</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22" t="s">
+      <c r="D40" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23" t="s">
         <v>63</v>
       </c>
       <c r="H40" s="17">
         <v>209.13</v>
       </c>
-      <c r="I40" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22" t="s">
+      <c r="I40" s="24" t="s">
         <v>109</v>
+      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="M40" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="N40" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="N40" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
       <c r="R40" s="17">
         <v>23.15</v>
       </c>
-      <c r="S40" s="23"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
+      <c r="S40" s="24"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
       <c r="W40" s="17">
         <v>20.83</v>
       </c>
-      <c r="X40" s="23"/>
+      <c r="X40" s="24"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="17">
         <v>239</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
+      <c r="D41" s="24"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="17">
         <v>239</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="I41" s="24"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="N41" s="24"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22" t="s">
-        <v>109</v>
+      <c r="N41" s="25"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="R41" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="S41" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
+      <c r="S41" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
       <c r="W41" s="17">
         <v>23.15</v>
       </c>
-      <c r="X41" s="23"/>
+      <c r="X41" s="24"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="17">
         <v>268.88</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="D42" s="24"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="17">
         <v>268.88</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+      <c r="I42" s="24"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
       <c r="M42" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="N42" s="24"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="N42" s="25"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
       <c r="R42" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="S42" s="24"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22" t="s">
-        <v>109</v>
+      <c r="S42" s="25"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="W42" s="16">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="X42" s="24" t="s">
-        <v>108</v>
+      <c r="X42" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="17">
         <v>298.75</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="D43" s="24"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
       <c r="H43" s="17">
         <v>298.75</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
+      <c r="I43" s="24"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="N43" s="24"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="N43" s="25"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
       <c r="R43" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="S43" s="24"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
+      <c r="S43" s="25"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
       <c r="W43" s="16">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X43" s="24"/>
+      <c r="X43" s="25"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="K44" s="22"/>
-      <c r="L44" s="22" t="s">
+      <c r="K44" s="23"/>
+      <c r="L44" s="23" t="s">
         <v>63</v>
       </c>
       <c r="M44" s="17">
         <v>209.13</v>
       </c>
-      <c r="N44" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+      <c r="N44" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
       <c r="R44" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="S44" s="24"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
+      <c r="S44" s="25"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
       <c r="W44" s="16">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="X44" s="24"/>
+      <c r="X44" s="25"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
       <c r="M45" s="17">
         <v>239</v>
       </c>
-      <c r="N45" s="23"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22" t="s">
+      <c r="N45" s="24"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23" t="s">
         <v>63</v>
       </c>
       <c r="R45" s="17">
         <v>209.13</v>
       </c>
-      <c r="S45" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
+      <c r="S45" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
       <c r="W45" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="X45" s="24"/>
+      <c r="X45" s="25"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
       <c r="M46" s="17">
         <v>268.88</v>
       </c>
-      <c r="N46" s="23"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
+      <c r="N46" s="24"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
       <c r="R46" s="17">
         <v>239</v>
       </c>
-      <c r="S46" s="23"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22" t="s">
+      <c r="S46" s="24"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23" t="s">
         <v>63</v>
       </c>
       <c r="W46" s="17">
         <v>209.13</v>
       </c>
-      <c r="X46" s="23" t="s">
-        <v>110</v>
+      <c r="X46" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
       <c r="M47" s="17">
         <v>298.75</v>
       </c>
-      <c r="N47" s="23"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+      <c r="N47" s="24"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
       <c r="R47" s="17">
         <v>268.88</v>
       </c>
-      <c r="S47" s="23"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
+      <c r="S47" s="24"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
       <c r="W47" s="17">
         <v>239</v>
       </c>
-      <c r="X47" s="23"/>
+      <c r="X47" s="24"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
       <c r="R48" s="17">
         <v>298.75</v>
       </c>
-      <c r="S48" s="23"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
+      <c r="S48" s="24"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
       <c r="W48" s="17">
         <v>268.88</v>
       </c>
-      <c r="X48" s="23"/>
+      <c r="X48" s="24"/>
     </row>
     <row r="49" spans="21:24">
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
       <c r="W49" s="17">
         <v>298.75</v>
       </c>
-      <c r="X49" s="23"/>
+      <c r="X49" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="V46:V49"/>
-    <mergeCell ref="X46:X49"/>
-    <mergeCell ref="V30:V33"/>
-    <mergeCell ref="X30:X33"/>
-    <mergeCell ref="V34:V37"/>
-    <mergeCell ref="X34:X37"/>
-    <mergeCell ref="V38:V41"/>
-    <mergeCell ref="X38:X41"/>
-    <mergeCell ref="X18:X21"/>
-    <mergeCell ref="V22:V25"/>
-    <mergeCell ref="X22:X25"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="X26:X29"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="A4:A43"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F4:F43"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K47"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="P9:P48"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="V18:V21"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="N44:N47"/>
     <mergeCell ref="Q41:Q44"/>
     <mergeCell ref="S41:S44"/>
     <mergeCell ref="V42:V45"/>
@@ -4000,82 +4202,19 @@
     <mergeCell ref="S17:S20"/>
     <mergeCell ref="Q21:Q24"/>
     <mergeCell ref="S21:S24"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="V18:V21"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="P9:P48"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K47"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A4:A43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F4:F43"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="V46:V49"/>
+    <mergeCell ref="X46:X49"/>
+    <mergeCell ref="V30:V33"/>
+    <mergeCell ref="X30:X33"/>
+    <mergeCell ref="V34:V37"/>
+    <mergeCell ref="X34:X37"/>
+    <mergeCell ref="V38:V41"/>
+    <mergeCell ref="X38:X41"/>
+    <mergeCell ref="X18:X21"/>
+    <mergeCell ref="V22:V25"/>
+    <mergeCell ref="X22:X25"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="X26:X29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4085,22 +4224,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209F5D9-1111-426E-A8D3-5366D6C150E1}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="2" width="6.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="18"/>
+    <col min="1" max="2" width="6.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="18"/>
+    <col min="9" max="9" width="4.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="20" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="C1" s="18" t="s">
         <v>55</v>
       </c>
@@ -4117,20 +4263,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="25"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="26"/>
       <c r="B3" s="18" t="s">
         <v>57</v>
       </c>
@@ -4140,405 +4301,701 @@
       <c r="D3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>62</v>
+      <c r="E3" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25" t="s">
-        <v>73</v>
+      <c r="I3" s="26"/>
+      <c r="J3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="20">
+        <v>977</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="F5" s="18" t="s">
-        <v>68</v>
+      <c r="I4" s="26"/>
+      <c r="J4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="20">
+        <v>751</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="27"/>
+      <c r="M5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="G6" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="G7" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="M7" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="20" customFormat="1"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="26"/>
+      <c r="B10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="20">
+        <v>1100</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="25"/>
-      <c r="B9" s="18" t="s">
+      <c r="C11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="20">
+        <v>669</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="20" customFormat="1"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="I16" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="20">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="26"/>
+      <c r="B17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="18" t="s">
+      <c r="F17" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="N17" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="18" t="s">
+      <c r="E18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="G18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="20">
+        <v>630</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="N18" s="28">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="M21" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="20" customFormat="1">
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="I23" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="20">
+        <v>20000</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="26"/>
+      <c r="B24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F24" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="N24" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="18" t="s">
+      <c r="D25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="20">
+        <v>807</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" s="28">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="G26" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="25"/>
-      <c r="B15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
+      <c r="K26" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="25"/>
-      <c r="B21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="25"/>
-      <c r="B27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="18" t="s">
         <v>62</v>
       </c>
@@ -4546,318 +5003,630 @@
         <v>62</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="M28" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="20" customFormat="1">
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="I30" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="20">
+        <v>23000</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="26"/>
+      <c r="B31" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="F31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="18" t="s">
+      <c r="N31" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="20">
+        <v>900</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N32" s="28">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="18" t="s">
+      <c r="K33" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="K34" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="25"/>
-      <c r="B33" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="18" t="s">
+      <c r="I35" s="26"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="M35" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1">
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="I37" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="20">
+        <v>17000</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="26"/>
+      <c r="B38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" s="20">
+        <v>669</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N39" s="28">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="I40" s="26"/>
+      <c r="J40" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" s="27"/>
+      <c r="M40" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="E41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="18" t="s">
+      <c r="I41" s="26"/>
+      <c r="J41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F42" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G42" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="26"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="M42" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1">
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="I44" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="18">
+        <v>16000</v>
+      </c>
+      <c r="M44" s="18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="25" t="s">
+      <c r="N44" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="26"/>
+      <c r="B45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="25" t="s">
+      <c r="G45" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="25"/>
-      <c r="B39" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="M45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" s="18">
+        <v>648</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="N46" s="28">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="26"/>
+      <c r="J47" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="L47" s="27"/>
+      <c r="M47" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N47" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="I49" s="26"/>
+      <c r="M49" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N49" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O49" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/统计.xlsx
+++ b/Excel/统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIt\presonalnote\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\presonalnote\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9802D547-6EAB-4724-AA13-E435EF913E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9199F94C-E340-4C5D-AB37-4AA95BF40722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,21 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="169">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,6 +694,14 @@
   </si>
   <si>
     <t>元素加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,9 +861,6 @@
     <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,10 +877,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -903,15 +902,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2024,7 +2014,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3D5CB-F3C7-4693-9ADA-14C543C9BF8B}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -2045,7 +2035,7 @@
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -2075,7 +2065,7 @@
       </c>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
@@ -2116,7 +2106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
         <v>79</v>
       </c>
@@ -2154,8 +2144,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="E4" s="13" t="s">
+    <row r="4" spans="1:14">
+      <c r="E4" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2164,9 +2154,6 @@
       <c r="K4" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="P6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2194,24 +2181,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8"/>
   <cols>
-    <col min="1" max="1" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2279,31 +2266,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="15"/>
-    <col min="6" max="6" width="3.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="15"/>
-    <col min="11" max="11" width="3.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="15"/>
-    <col min="16" max="16" width="3.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="15"/>
-    <col min="21" max="21" width="3.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="3.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="14"/>
+    <col min="6" max="6" width="3.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="3.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="14"/>
+    <col min="16" max="16" width="3.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="14"/>
+    <col min="21" max="21" width="3.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -2339,112 +2326,112 @@
       <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>20</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>20</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>1</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>20</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="14">
         <v>1</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="14">
         <v>20</v>
       </c>
       <c r="U2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="14">
         <v>1</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>717</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>4780</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>47</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>311</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <v>0.46600000000000003</v>
       </c>
       <c r="P3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="15">
         <v>0.46600000000000003</v>
       </c>
       <c r="U3" s="23"/>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="15">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="15">
         <v>0.622</v>
       </c>
     </row>
@@ -2455,7 +2442,7 @@
       <c r="B4" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -2467,172 +2454,172 @@
       <c r="G4" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>97</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>0.46600000000000003</v>
       </c>
       <c r="P4" s="23"/>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <v>0.58299999999999996</v>
       </c>
       <c r="U4" s="23"/>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <v>4.7E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <v>0.311</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="D5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="I5" s="23"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>0.58299999999999996</v>
       </c>
       <c r="P5" s="23"/>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="15">
         <v>0.46600000000000003</v>
       </c>
       <c r="U5" s="23"/>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="15">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I6" s="23"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>28</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>187</v>
       </c>
       <c r="P6" s="23"/>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <v>0.58299999999999996</v>
       </c>
       <c r="U6" s="23"/>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="15">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="15">
         <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="D7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="I7" s="23"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <v>7.8E-2</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <v>0.51800000000000002</v>
       </c>
       <c r="P7" s="23"/>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="15">
         <v>0.46600000000000003</v>
       </c>
       <c r="U7" s="23"/>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="15">
         <v>0.46600000000000003</v>
       </c>
     </row>
@@ -2641,7 +2628,7 @@
       <c r="B8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -2651,7 +2638,7 @@
       <c r="G8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="I8" s="23" t="s">
@@ -2663,49 +2650,49 @@
       <c r="L8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>97</v>
       </c>
       <c r="P8" s="23"/>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>28</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="14">
         <v>187</v>
       </c>
       <c r="U8" s="23"/>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="15">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="15">
         <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>98</v>
       </c>
       <c r="I9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="N9" s="23"/>
@@ -2715,45 +2702,45 @@
       <c r="Q9" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="15">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="S9" s="23" t="s">
         <v>97</v>
       </c>
       <c r="U9" s="23"/>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="14">
         <v>28</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="D10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="I10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="N10" s="23"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
-      <c r="R10" s="16">
+      <c r="R10" s="15">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="S10" s="23"/>
@@ -2763,7 +2750,7 @@
       <c r="V10" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="15">
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="X10" s="23" t="s">
@@ -2773,31 +2760,31 @@
     <row r="11" spans="1:24">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="D11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="I11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="N11" s="23"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
-      <c r="R11" s="16">
+      <c r="R11" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="S11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="16">
+      <c r="W11" s="15">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="X11" s="23"/>
@@ -2807,7 +2794,7 @@
       <c r="B12" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -2817,7 +2804,7 @@
       <c r="G12" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="I12" s="23" t="s">
@@ -2827,7 +2814,7 @@
       <c r="L12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="N12" s="23" t="s">
@@ -2835,13 +2822,13 @@
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
-      <c r="R12" s="16">
+      <c r="R12" s="15">
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="S12" s="23"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
-      <c r="W12" s="16">
+      <c r="W12" s="15">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="X12" s="23"/>
@@ -2849,19 +2836,19 @@
     <row r="13" spans="1:24">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="D13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="I13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>98</v>
       </c>
       <c r="N13" s="23"/>
@@ -2869,7 +2856,7 @@
       <c r="Q13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="15">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="S13" s="23" t="s">
@@ -2877,7 +2864,7 @@
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
-      <c r="W13" s="16">
+      <c r="W13" s="15">
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="X13" s="23"/>
@@ -2885,25 +2872,25 @@
     <row r="14" spans="1:24">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="D14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="I14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="N14" s="23"/>
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="15" t="s">
         <v>98</v>
       </c>
       <c r="S14" s="23"/>
@@ -2911,7 +2898,7 @@
       <c r="V14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="15">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="X14" s="23" t="s">
@@ -2921,31 +2908,31 @@
     <row r="15" spans="1:24">
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="D15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="I15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="N15" s="23"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
-      <c r="R15" s="16">
+      <c r="R15" s="15">
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="S15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="15" t="s">
         <v>98</v>
       </c>
       <c r="X15" s="23"/>
@@ -2955,7 +2942,7 @@
       <c r="B16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>13.62</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -2965,7 +2952,7 @@
       <c r="G16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>13.62</v>
       </c>
       <c r="I16" s="24" t="s">
@@ -2975,7 +2962,7 @@
       <c r="L16" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="N16" s="23" t="s">
@@ -2983,13 +2970,13 @@
       </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
-      <c r="R16" s="16">
+      <c r="R16" s="15">
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="S16" s="23"/>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
-      <c r="W16" s="16">
+      <c r="W16" s="15">
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="X16" s="23"/>
@@ -2997,19 +2984,19 @@
     <row r="17" spans="1:24">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>15.56</v>
       </c>
       <c r="D17" s="24"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>15.56</v>
       </c>
       <c r="I17" s="24"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="N17" s="23"/>
@@ -3017,7 +3004,7 @@
       <c r="Q17" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="S17" s="23" t="s">
@@ -3025,7 +3012,7 @@
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
-      <c r="W17" s="16">
+      <c r="W17" s="15">
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="X17" s="23"/>
@@ -3033,25 +3020,25 @@
     <row r="18" spans="1:24">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>17.510000000000002</v>
       </c>
       <c r="D18" s="24"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>17.510000000000002</v>
       </c>
       <c r="I18" s="24"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="N18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
-      <c r="R18" s="16">
+      <c r="R18" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="S18" s="23"/>
@@ -3059,7 +3046,7 @@
       <c r="V18" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="16">
+      <c r="W18" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="X18" s="23" t="s">
@@ -3069,31 +3056,31 @@
     <row r="19" spans="1:24">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>19.45</v>
       </c>
       <c r="D19" s="24"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>19.45</v>
       </c>
       <c r="I19" s="24"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="N19" s="23"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
-      <c r="R19" s="16">
+      <c r="R19" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="S19" s="23"/>
       <c r="U19" s="23"/>
       <c r="V19" s="23"/>
-      <c r="W19" s="16">
+      <c r="W19" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X19" s="23"/>
@@ -3103,7 +3090,7 @@
       <c r="B20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>16.32</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -3113,7 +3100,7 @@
       <c r="G20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>16.32</v>
       </c>
       <c r="I20" s="24" t="s">
@@ -3123,7 +3110,7 @@
       <c r="L20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <v>13.62</v>
       </c>
       <c r="N20" s="24" t="s">
@@ -3131,13 +3118,13 @@
       </c>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
-      <c r="R20" s="16">
+      <c r="R20" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="S20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
-      <c r="W20" s="16">
+      <c r="W20" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="X20" s="23"/>
@@ -3145,19 +3132,19 @@
     <row r="21" spans="1:24">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>18.52</v>
       </c>
       <c r="D21" s="24"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>18.52</v>
       </c>
       <c r="I21" s="24"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <v>15.56</v>
       </c>
       <c r="N21" s="24"/>
@@ -3165,7 +3152,7 @@
       <c r="Q21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="16">
         <v>13.62</v>
       </c>
       <c r="S21" s="24" t="s">
@@ -3173,7 +3160,7 @@
       </c>
       <c r="U21" s="23"/>
       <c r="V21" s="23"/>
-      <c r="W21" s="16">
+      <c r="W21" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="X21" s="23"/>
@@ -3181,25 +3168,25 @@
     <row r="22" spans="1:24">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>20.83</v>
       </c>
       <c r="D22" s="24"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>20.83</v>
       </c>
       <c r="I22" s="24"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
-      <c r="M22" s="17">
+      <c r="M22" s="16">
         <v>17.510000000000002</v>
       </c>
       <c r="N22" s="24"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
-      <c r="R22" s="17">
+      <c r="R22" s="16">
         <v>15.56</v>
       </c>
       <c r="S22" s="24"/>
@@ -3207,7 +3194,7 @@
       <c r="V22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="W22" s="17">
+      <c r="W22" s="16">
         <v>13.62</v>
       </c>
       <c r="X22" s="24" t="s">
@@ -3217,31 +3204,31 @@
     <row r="23" spans="1:24">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>23.15</v>
       </c>
       <c r="D23" s="24"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>23.15</v>
       </c>
       <c r="I23" s="24"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="17">
+      <c r="M23" s="16">
         <v>19.45</v>
       </c>
       <c r="N23" s="24"/>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
-      <c r="R23" s="17">
+      <c r="R23" s="16">
         <v>17.510000000000002</v>
       </c>
       <c r="S23" s="24"/>
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
-      <c r="W23" s="17">
+      <c r="W23" s="16">
         <v>15.56</v>
       </c>
       <c r="X23" s="24"/>
@@ -3251,7 +3238,7 @@
       <c r="B24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>4.53E-2</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -3261,7 +3248,7 @@
       <c r="G24" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>4.53E-2</v>
       </c>
       <c r="I24" s="25" t="s">
@@ -3271,7 +3258,7 @@
       <c r="L24" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="16">
         <v>16.32</v>
       </c>
       <c r="N24" s="24" t="s">
@@ -3279,13 +3266,13 @@
       </c>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
-      <c r="R24" s="17">
+      <c r="R24" s="16">
         <v>19.45</v>
       </c>
       <c r="S24" s="24"/>
       <c r="U24" s="23"/>
       <c r="V24" s="23"/>
-      <c r="W24" s="17">
+      <c r="W24" s="16">
         <v>17.510000000000002</v>
       </c>
       <c r="X24" s="24"/>
@@ -3293,19 +3280,19 @@
     <row r="25" spans="1:24">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="D25" s="25"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="I25" s="25"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="17">
+      <c r="M25" s="16">
         <v>18.52</v>
       </c>
       <c r="N25" s="24"/>
@@ -3313,7 +3300,7 @@
       <c r="Q25" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="R25" s="17">
+      <c r="R25" s="16">
         <v>16.32</v>
       </c>
       <c r="S25" s="24" t="s">
@@ -3321,7 +3308,7 @@
       </c>
       <c r="U25" s="23"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="17">
+      <c r="W25" s="16">
         <v>19.45</v>
       </c>
       <c r="X25" s="24"/>
@@ -3329,25 +3316,25 @@
     <row r="26" spans="1:24">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="D26" s="25"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="I26" s="25"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <v>20.83</v>
       </c>
       <c r="N26" s="24"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
-      <c r="R26" s="17">
+      <c r="R26" s="16">
         <v>18.52</v>
       </c>
       <c r="S26" s="24"/>
@@ -3355,7 +3342,7 @@
       <c r="V26" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="W26" s="17">
+      <c r="W26" s="16">
         <v>16.32</v>
       </c>
       <c r="X26" s="24" t="s">
@@ -3365,31 +3352,31 @@
     <row r="27" spans="1:24">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="D27" s="25"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="I27" s="25"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
-      <c r="M27" s="17">
+      <c r="M27" s="16">
         <v>23.15</v>
       </c>
       <c r="N27" s="24"/>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
-      <c r="R27" s="17">
+      <c r="R27" s="16">
         <v>20.83</v>
       </c>
       <c r="S27" s="24"/>
       <c r="U27" s="23"/>
       <c r="V27" s="23"/>
-      <c r="W27" s="17">
+      <c r="W27" s="16">
         <v>18.52</v>
       </c>
       <c r="X27" s="24"/>
@@ -3399,7 +3386,7 @@
       <c r="B28" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -3409,7 +3396,7 @@
       <c r="G28" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="I28" s="25" t="s">
@@ -3419,7 +3406,7 @@
       <c r="L28" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <v>4.53E-2</v>
       </c>
       <c r="N28" s="25" t="s">
@@ -3427,13 +3414,13 @@
       </c>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
-      <c r="R28" s="17">
+      <c r="R28" s="16">
         <v>23.15</v>
       </c>
       <c r="S28" s="24"/>
       <c r="U28" s="23"/>
       <c r="V28" s="23"/>
-      <c r="W28" s="17">
+      <c r="W28" s="16">
         <v>20.83</v>
       </c>
       <c r="X28" s="24"/>
@@ -3441,19 +3428,19 @@
     <row r="29" spans="1:24">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="D29" s="25"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="I29" s="25"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="N29" s="25"/>
@@ -3461,7 +3448,7 @@
       <c r="Q29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="R29" s="16">
+      <c r="R29" s="15">
         <v>4.53E-2</v>
       </c>
       <c r="S29" s="25" t="s">
@@ -3469,7 +3456,7 @@
       </c>
       <c r="U29" s="23"/>
       <c r="V29" s="23"/>
-      <c r="W29" s="17">
+      <c r="W29" s="16">
         <v>23.15</v>
       </c>
       <c r="X29" s="24"/>
@@ -3477,25 +3464,25 @@
     <row r="30" spans="1:24">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="D30" s="25"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="I30" s="25"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="16">
+      <c r="M30" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="N30" s="25"/>
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
-      <c r="R30" s="16">
+      <c r="R30" s="15">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="S30" s="25"/>
@@ -3503,7 +3490,7 @@
       <c r="V30" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="W30" s="16">
+      <c r="W30" s="15">
         <v>4.53E-2</v>
       </c>
       <c r="X30" s="25" t="s">
@@ -3513,31 +3500,31 @@
     <row r="31" spans="1:24">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="D31" s="25"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="16">
+      <c r="H31" s="15">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="I31" s="25"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
-      <c r="M31" s="16">
+      <c r="M31" s="15">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="N31" s="25"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
-      <c r="R31" s="16">
+      <c r="R31" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="S31" s="25"/>
       <c r="U31" s="23"/>
       <c r="V31" s="23"/>
-      <c r="W31" s="16">
+      <c r="W31" s="15">
         <v>5.1799999999999999E-2</v>
       </c>
       <c r="X31" s="25"/>
@@ -3547,7 +3534,7 @@
       <c r="B32" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>16.2</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -3557,7 +3544,7 @@
       <c r="G32" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <v>16.2</v>
       </c>
       <c r="I32" s="24" t="s">
@@ -3567,7 +3554,7 @@
       <c r="L32" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="N32" s="25" t="s">
@@ -3575,13 +3562,13 @@
       </c>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
-      <c r="R32" s="16">
+      <c r="R32" s="15">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="S32" s="25"/>
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
-      <c r="W32" s="16">
+      <c r="W32" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="X32" s="25"/>
@@ -3589,19 +3576,19 @@
     <row r="33" spans="1:24">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>18.52</v>
       </c>
       <c r="D33" s="24"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <v>18.52</v>
       </c>
       <c r="I33" s="24"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="16">
+      <c r="M33" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="N33" s="25"/>
@@ -3609,7 +3596,7 @@
       <c r="Q33" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="R33" s="16">
+      <c r="R33" s="15">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="S33" s="25" t="s">
@@ -3617,7 +3604,7 @@
       </c>
       <c r="U33" s="23"/>
       <c r="V33" s="23"/>
-      <c r="W33" s="16">
+      <c r="W33" s="15">
         <v>6.4799999999999996E-2</v>
       </c>
       <c r="X33" s="25"/>
@@ -3625,25 +3612,25 @@
     <row r="34" spans="1:24">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>20.83</v>
       </c>
       <c r="D34" s="24"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>20.83</v>
       </c>
       <c r="I34" s="24"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="N34" s="25"/>
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
-      <c r="R34" s="16">
+      <c r="R34" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="S34" s="25"/>
@@ -3651,7 +3638,7 @@
       <c r="V34" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="W34" s="16">
+      <c r="W34" s="15">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="X34" s="25" t="s">
@@ -3661,31 +3648,31 @@
     <row r="35" spans="1:24">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>23.15</v>
       </c>
       <c r="D35" s="24"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>23.15</v>
       </c>
       <c r="I35" s="24"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="16">
+      <c r="M35" s="15">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="N35" s="25"/>
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
-      <c r="R35" s="16">
+      <c r="R35" s="15">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="S35" s="25"/>
       <c r="U35" s="23"/>
       <c r="V35" s="23"/>
-      <c r="W35" s="16">
+      <c r="W35" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="X35" s="25"/>
@@ -3695,7 +3682,7 @@
       <c r="B36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -3705,7 +3692,7 @@
       <c r="G36" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="I36" s="25" t="s">
@@ -3715,7 +3702,7 @@
       <c r="L36" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="16">
         <v>16.2</v>
       </c>
       <c r="N36" s="24" t="s">
@@ -3723,13 +3710,13 @@
       </c>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
-      <c r="R36" s="16">
+      <c r="R36" s="15">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="S36" s="25"/>
       <c r="U36" s="23"/>
       <c r="V36" s="23"/>
-      <c r="W36" s="16">
+      <c r="W36" s="15">
         <v>6.5600000000000006E-2</v>
       </c>
       <c r="X36" s="25"/>
@@ -3737,19 +3724,19 @@
     <row r="37" spans="1:24">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="D37" s="25"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
-      <c r="H37" s="16">
+      <c r="H37" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="I37" s="25"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="17">
+      <c r="M37" s="16">
         <v>18.52</v>
       </c>
       <c r="N37" s="24"/>
@@ -3757,7 +3744,7 @@
       <c r="Q37" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="R37" s="17">
+      <c r="R37" s="16">
         <v>16.2</v>
       </c>
       <c r="S37" s="24" t="s">
@@ -3765,7 +3752,7 @@
       </c>
       <c r="U37" s="23"/>
       <c r="V37" s="23"/>
-      <c r="W37" s="16">
+      <c r="W37" s="15">
         <v>7.2900000000000006E-2</v>
       </c>
       <c r="X37" s="25"/>
@@ -3773,25 +3760,25 @@
     <row r="38" spans="1:24">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="D38" s="25"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="I38" s="25"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>20.83</v>
       </c>
       <c r="N38" s="24"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
-      <c r="R38" s="17">
+      <c r="R38" s="16">
         <v>18.52</v>
       </c>
       <c r="S38" s="24"/>
@@ -3799,7 +3786,7 @@
       <c r="V38" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="W38" s="17">
+      <c r="W38" s="16">
         <v>16.2</v>
       </c>
       <c r="X38" s="24" t="s">
@@ -3809,31 +3796,31 @@
     <row r="39" spans="1:24">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="D39" s="25"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="16">
+      <c r="H39" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="I39" s="25"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
-      <c r="M39" s="17">
+      <c r="M39" s="16">
         <v>23.15</v>
       </c>
       <c r="N39" s="24"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
-      <c r="R39" s="17">
+      <c r="R39" s="16">
         <v>20.83</v>
       </c>
       <c r="S39" s="24"/>
       <c r="U39" s="23"/>
       <c r="V39" s="23"/>
-      <c r="W39" s="17">
+      <c r="W39" s="16">
         <v>18.52</v>
       </c>
       <c r="X39" s="24"/>
@@ -3843,7 +3830,7 @@
       <c r="B40" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>209.13</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -3853,7 +3840,7 @@
       <c r="G40" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>209.13</v>
       </c>
       <c r="I40" s="24" t="s">
@@ -3863,7 +3850,7 @@
       <c r="L40" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="N40" s="25" t="s">
@@ -3871,13 +3858,13 @@
       </c>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
-      <c r="R40" s="17">
+      <c r="R40" s="16">
         <v>23.15</v>
       </c>
       <c r="S40" s="24"/>
       <c r="U40" s="23"/>
       <c r="V40" s="23"/>
-      <c r="W40" s="17">
+      <c r="W40" s="16">
         <v>20.83</v>
       </c>
       <c r="X40" s="24"/>
@@ -3885,19 +3872,19 @@
     <row r="41" spans="1:24">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>239</v>
       </c>
       <c r="D41" s="24"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="17">
+      <c r="H41" s="16">
         <v>239</v>
       </c>
       <c r="I41" s="24"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="16">
+      <c r="M41" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="N41" s="25"/>
@@ -3905,7 +3892,7 @@
       <c r="Q41" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R41" s="16">
+      <c r="R41" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="S41" s="25" t="s">
@@ -3913,7 +3900,7 @@
       </c>
       <c r="U41" s="23"/>
       <c r="V41" s="23"/>
-      <c r="W41" s="17">
+      <c r="W41" s="16">
         <v>23.15</v>
       </c>
       <c r="X41" s="24"/>
@@ -3921,25 +3908,25 @@
     <row r="42" spans="1:24">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>268.88</v>
       </c>
       <c r="D42" s="24"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <v>268.88</v>
       </c>
       <c r="I42" s="24"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="16">
+      <c r="M42" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="N42" s="25"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>
-      <c r="R42" s="16">
+      <c r="R42" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="S42" s="25"/>
@@ -3947,7 +3934,7 @@
       <c r="V42" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="W42" s="16">
+      <c r="W42" s="15">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="X42" s="25" t="s">
@@ -3957,31 +3944,31 @@
     <row r="43" spans="1:24">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>298.75</v>
       </c>
       <c r="D43" s="24"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <v>298.75</v>
       </c>
       <c r="I43" s="24"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="16">
+      <c r="M43" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="N43" s="25"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
-      <c r="R43" s="16">
+      <c r="R43" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="S43" s="25"/>
       <c r="U43" s="23"/>
       <c r="V43" s="23"/>
-      <c r="W43" s="16">
+      <c r="W43" s="15">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X43" s="25"/>
@@ -3991,7 +3978,7 @@
       <c r="L44" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="16">
         <v>209.13</v>
       </c>
       <c r="N44" s="24" t="s">
@@ -3999,13 +3986,13 @@
       </c>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
-      <c r="R44" s="16">
+      <c r="R44" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="S44" s="25"/>
       <c r="U44" s="23"/>
       <c r="V44" s="23"/>
-      <c r="W44" s="16">
+      <c r="W44" s="15">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="X44" s="25"/>
@@ -4013,7 +4000,7 @@
     <row r="45" spans="1:24">
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="17">
+      <c r="M45" s="16">
         <v>239</v>
       </c>
       <c r="N45" s="24"/>
@@ -4021,7 +4008,7 @@
       <c r="Q45" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="16">
         <v>209.13</v>
       </c>
       <c r="S45" s="24" t="s">
@@ -4029,7 +4016,7 @@
       </c>
       <c r="U45" s="23"/>
       <c r="V45" s="23"/>
-      <c r="W45" s="16">
+      <c r="W45" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="X45" s="25"/>
@@ -4037,13 +4024,13 @@
     <row r="46" spans="1:24">
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="17">
+      <c r="M46" s="16">
         <v>268.88</v>
       </c>
       <c r="N46" s="24"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
-      <c r="R46" s="17">
+      <c r="R46" s="16">
         <v>239</v>
       </c>
       <c r="S46" s="24"/>
@@ -4051,7 +4038,7 @@
       <c r="V46" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="W46" s="17">
+      <c r="W46" s="16">
         <v>209.13</v>
       </c>
       <c r="X46" s="24" t="s">
@@ -4061,19 +4048,19 @@
     <row r="47" spans="1:24">
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="17">
+      <c r="M47" s="16">
         <v>298.75</v>
       </c>
       <c r="N47" s="24"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
-      <c r="R47" s="17">
+      <c r="R47" s="16">
         <v>268.88</v>
       </c>
       <c r="S47" s="24"/>
       <c r="U47" s="23"/>
       <c r="V47" s="23"/>
-      <c r="W47" s="17">
+      <c r="W47" s="16">
         <v>239</v>
       </c>
       <c r="X47" s="24"/>
@@ -4081,13 +4068,13 @@
     <row r="48" spans="1:24">
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
-      <c r="R48" s="17">
+      <c r="R48" s="16">
         <v>298.75</v>
       </c>
       <c r="S48" s="24"/>
       <c r="U48" s="23"/>
       <c r="V48" s="23"/>
-      <c r="W48" s="17">
+      <c r="W48" s="16">
         <v>268.88</v>
       </c>
       <c r="X48" s="24"/>
@@ -4095,13 +4082,102 @@
     <row r="49" spans="21:24">
       <c r="U49" s="23"/>
       <c r="V49" s="23"/>
-      <c r="W49" s="17">
+      <c r="W49" s="16">
         <v>298.75</v>
       </c>
       <c r="X49" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="U10:U49"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X13"/>
+    <mergeCell ref="V14:V17"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="S29:S32"/>
+    <mergeCell ref="Q33:Q36"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="Q37:Q40"/>
+    <mergeCell ref="S37:S40"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="V46:V49"/>
+    <mergeCell ref="X46:X49"/>
+    <mergeCell ref="V30:V33"/>
+    <mergeCell ref="X30:X33"/>
+    <mergeCell ref="V34:V37"/>
+    <mergeCell ref="X34:X37"/>
+    <mergeCell ref="V38:V41"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="V18:V21"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="S41:S44"/>
+    <mergeCell ref="V42:V45"/>
+    <mergeCell ref="X42:X45"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="S45:S48"/>
+    <mergeCell ref="X38:X41"/>
+    <mergeCell ref="X18:X21"/>
+    <mergeCell ref="V22:V25"/>
+    <mergeCell ref="X22:X25"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="X26:X29"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="P9:P48"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K47"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="I16:I19"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="B12:B15"/>
@@ -4126,95 +4202,6 @@
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K47"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="P9:P48"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="V18:V21"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="S41:S44"/>
-    <mergeCell ref="V42:V45"/>
-    <mergeCell ref="X42:X45"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="S45:S48"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="U2:U9"/>
-    <mergeCell ref="U10:U49"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X13"/>
-    <mergeCell ref="V14:V17"/>
-    <mergeCell ref="Q29:Q32"/>
-    <mergeCell ref="S29:S32"/>
-    <mergeCell ref="Q33:Q36"/>
-    <mergeCell ref="S33:S36"/>
-    <mergeCell ref="Q37:Q40"/>
-    <mergeCell ref="S37:S40"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="V46:V49"/>
-    <mergeCell ref="X46:X49"/>
-    <mergeCell ref="V30:V33"/>
-    <mergeCell ref="X30:X33"/>
-    <mergeCell ref="V34:V37"/>
-    <mergeCell ref="X34:X37"/>
-    <mergeCell ref="V38:V41"/>
-    <mergeCell ref="X38:X41"/>
-    <mergeCell ref="X18:X21"/>
-    <mergeCell ref="V22:V25"/>
-    <mergeCell ref="X22:X25"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="X26:X29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4224,42 +4211,42 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2209F5D9-1111-426E-A8D3-5366D6C150E1}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="2" width="6.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="18"/>
-    <col min="9" max="9" width="4.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="20" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="18"/>
+    <col min="1" max="2" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="17"/>
+    <col min="9" max="9" width="4.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="17" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4277,50 +4264,50 @@
       <c r="I2" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="17">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="26"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="17">
         <v>977</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4329,129 +4316,126 @@
       <c r="B4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <v>751</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="29" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="20" customFormat="1"/>
     <row r="9" spans="1:14">
       <c r="A9" s="26" t="s">
         <v>71</v>
@@ -4466,50 +4450,50 @@
       <c r="I9" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="26"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>116</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <v>1100</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="18" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4518,129 +4502,126 @@
       <c r="B11" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <v>669</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="19">
         <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>76</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="29" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="20" customFormat="1"/>
     <row r="16" spans="1:14">
       <c r="A16" s="26" t="s">
         <v>77</v>
@@ -4655,50 +4636,50 @@
       <c r="I16" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="17">
         <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="26"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="18" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4707,131 +4688,129 @@
       <c r="B18" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="17">
         <v>630</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="19">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>68</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="29" t="s">
+      <c r="L19" s="18"/>
+      <c r="M19" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I20" s="26"/>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
         <v>69</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="20" customFormat="1">
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+    <row r="22" spans="1:14">
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="26" t="s">
@@ -4847,50 +4826,50 @@
       <c r="I23" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="17">
         <v>20000</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="17">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="26"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I24" s="26"/>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="27" t="s">
+      <c r="N24" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4899,131 +4878,129 @@
       <c r="B25" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I25" s="26"/>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="17">
         <v>807</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="19">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>68</v>
       </c>
       <c r="I26" s="26"/>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="29" t="s">
+      <c r="L26" s="18"/>
+      <c r="M26" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I27" s="26"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>69</v>
       </c>
       <c r="I28" s="26"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="N28" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="20" customFormat="1">
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+    <row r="29" spans="1:14">
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="26" t="s">
@@ -5039,50 +5016,50 @@
       <c r="I30" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="17">
         <v>23000</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N30" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="26"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="17" t="s">
         <v>125</v>
       </c>
       <c r="I31" s="26"/>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N31" s="27" t="s">
+      <c r="N31" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5091,131 +5068,129 @@
       <c r="B32" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I32" s="26"/>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="17">
         <v>900</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="19">
         <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="17" t="s">
         <v>76</v>
       </c>
       <c r="I33" s="26"/>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="29" t="s">
+      <c r="L33" s="18"/>
+      <c r="M33" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="17" t="s">
         <v>108</v>
       </c>
       <c r="I34" s="26"/>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="17" t="s">
         <v>68</v>
       </c>
       <c r="I35" s="26"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="M35" s="29" t="s">
+      <c r="M35" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N35" s="29" t="s">
+      <c r="N35" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="20" customFormat="1">
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
+    <row r="36" spans="1:14">
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="26" t="s">
@@ -5231,50 +5206,50 @@
       <c r="I37" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="17">
         <v>17000</v>
       </c>
-      <c r="M37" s="20" t="s">
+      <c r="M37" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="26"/>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I38" s="26"/>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N38" s="27" t="s">
+      <c r="N38" s="18" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5283,137 +5258,134 @@
       <c r="B39" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I39" s="26"/>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="17">
         <v>669</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M39" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="N39" s="28">
+      <c r="N39" s="19">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="17" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="26"/>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="29" t="s">
+      <c r="L40" s="18"/>
+      <c r="M40" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N40" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I41" s="26"/>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N41" s="29" t="s">
+      <c r="N41" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="17" t="s">
         <v>92</v>
       </c>
       <c r="I42" s="26"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="M42" s="29" t="s">
+      <c r="M42" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N42" s="29" t="s">
+      <c r="N42" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="20" customFormat="1">
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
+    <row r="43" spans="1:14">
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="19"/>
       <c r="C44" s="26" t="s">
         <v>145</v>
       </c>
@@ -5424,50 +5396,50 @@
       <c r="I44" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="17">
         <v>16000</v>
       </c>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="26"/>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I45" s="26"/>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="K45" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5476,136 +5448,324 @@
       <c r="B46" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I46" s="26"/>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="17">
         <v>648</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="N46" s="28">
+      <c r="N46" s="19">
         <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="17" t="s">
         <v>68</v>
       </c>
       <c r="I47" s="26"/>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K47" s="27" t="s">
+      <c r="K47" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="L47" s="27"/>
-      <c r="M47" s="29" t="s">
+      <c r="L47" s="18"/>
+      <c r="M47" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N47" s="29">
+      <c r="N47" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="17" t="s">
         <v>92</v>
       </c>
       <c r="I48" s="26"/>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="K48" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="M48" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="N48" s="29" t="s">
+      <c r="N48" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:14">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="17" t="s">
         <v>130</v>
       </c>
       <c r="I49" s="26"/>
-      <c r="M49" s="29" t="s">
+      <c r="M49" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N49" s="29" t="s">
+      <c r="N49" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="O49" s="20"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="I51" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="17">
+        <v>16000</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="26"/>
+      <c r="B52" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="26"/>
+      <c r="J52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="26"/>
+      <c r="J53" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K53" s="17">
+        <v>648</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="N53" s="19">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="26"/>
+      <c r="J54" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L54" s="18"/>
+      <c r="M54" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="N54" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="J55" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N55" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="26"/>
+      <c r="M56" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56" s="20" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="I44:I49"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="I23:I28"/>
+  <mergeCells count="32">
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="C44:G44"/>
     <mergeCell ref="B46:B49"/>
@@ -5621,12 +5781,13 @@
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="I23:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
